--- a/dataset_xlsx/scogov_sds2011.xlsx
+++ b/dataset_xlsx/scogov_sds2011.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="20900" windowHeight="14280" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="prevelence" sheetId="19" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="171">
   <si>
     <t>metric</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>midyrpe</t>
+  </si>
+  <si>
+    <t>prevalence_n</t>
+  </si>
+  <si>
+    <t>prevalence_p</t>
   </si>
 </sst>
 </file>
@@ -747,7 +753,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -839,8 +845,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,9 +954,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1017,9 +1034,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="105">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1065,6 +1088,13 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1109,6 +1139,13 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1410,7 +1447,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2019,35 +2056,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="90" customFormat="1">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:8" s="14" customFormat="1">
+      <c r="A1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2066,8 +2112,16 @@
       <c r="F2">
         <v>366860</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>SUM(C2:E2)</f>
+        <v>20175</v>
+      </c>
+      <c r="H2" s="90">
+        <f>G2/F2</f>
+        <v>5.4993730578422287E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2086,8 +2140,16 @@
       <c r="F3">
         <v>112870</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">SUM(C3:E3)</f>
+        <v>5493</v>
+      </c>
+      <c r="H3" s="90">
+        <f t="shared" ref="H3:H66" si="1">G3/F3</f>
+        <v>4.8666607601665635E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -2106,8 +2168,16 @@
       <c r="F4">
         <v>148190</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>8168</v>
+      </c>
+      <c r="H4" s="90">
+        <f t="shared" si="1"/>
+        <v>5.5118429043795131E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -2126,8 +2196,16 @@
       <c r="F5">
         <v>364945</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>18192</v>
+      </c>
+      <c r="H5" s="90">
+        <f t="shared" si="1"/>
+        <v>4.9848607324391343E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -2146,8 +2224,16 @@
       <c r="F6">
         <v>293386</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>14201</v>
+      </c>
+      <c r="H6" s="90">
+        <f t="shared" si="1"/>
+        <v>4.8403809316054619E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -2166,8 +2252,16 @@
       <c r="F7">
         <v>550620</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>24040</v>
+      </c>
+      <c r="H7" s="90">
+        <f t="shared" si="1"/>
+        <v>4.3659874323489882E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -2186,8 +2280,16 @@
       <c r="F8">
         <v>1203870</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>56712</v>
+      </c>
+      <c r="H8" s="90">
+        <f t="shared" si="1"/>
+        <v>4.7108076453437661E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -2206,8 +2308,16 @@
       <c r="F9">
         <v>310830</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>14365</v>
+      </c>
+      <c r="H9" s="90">
+        <f t="shared" si="1"/>
+        <v>4.6214972814721873E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -2226,8 +2336,16 @@
       <c r="F10">
         <v>562477</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>28629</v>
+      </c>
+      <c r="H10" s="90">
+        <f t="shared" si="1"/>
+        <v>5.0898081165985452E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -2246,8 +2364,16 @@
       <c r="F11">
         <v>836711</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>34024</v>
+      </c>
+      <c r="H11" s="90">
+        <f t="shared" si="1"/>
+        <v>4.0663980753211086E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -2266,8 +2392,16 @@
       <c r="F12">
         <v>20110</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>973</v>
+      </c>
+      <c r="H12" s="90">
+        <f t="shared" si="1"/>
+        <v>4.838388861263053E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -2286,8 +2420,16 @@
       <c r="F13">
         <v>22400</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="H13" s="90">
+        <f t="shared" si="1"/>
+        <v>4.4598214285714283E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -2306,28 +2448,44 @@
       <c r="F14">
         <v>402641</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>20066</v>
+      </c>
+      <c r="H14" s="90">
+        <f t="shared" si="1"/>
+        <v>4.983595808673235E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>2011</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>182</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>1058</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>26190</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>1241</v>
+      </c>
+      <c r="H15" s="91">
+        <f t="shared" si="1"/>
+        <v>4.7384497899961818E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -2346,8 +2504,16 @@
       <c r="F16">
         <v>367160</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>19075</v>
+      </c>
+      <c r="H16" s="92">
+        <f t="shared" si="1"/>
+        <v>5.1952827105349167E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -2366,8 +2532,16 @@
       <c r="F17">
         <v>112680</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>5355</v>
+      </c>
+      <c r="H17" s="92">
+        <f t="shared" si="1"/>
+        <v>4.7523961661341853E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -2386,8 +2560,16 @@
       <c r="F18">
         <v>148510</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>7771</v>
+      </c>
+      <c r="H18" s="92">
+        <f t="shared" si="1"/>
+        <v>5.2326442663793681E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2406,8 +2588,16 @@
       <c r="F19">
         <v>363385</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>17467</v>
+      </c>
+      <c r="H19" s="92">
+        <f t="shared" si="1"/>
+        <v>4.8067476643229634E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -2426,8 +2616,16 @@
       <c r="F20">
         <v>291383</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>13618</v>
+      </c>
+      <c r="H20" s="92">
+        <f t="shared" si="1"/>
+        <v>4.6735739559274223E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -2446,8 +2644,16 @@
       <c r="F21">
         <v>544980</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>23357</v>
+      </c>
+      <c r="H21" s="92">
+        <f t="shared" si="1"/>
+        <v>4.285845352123014E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2466,8 +2672,16 @@
       <c r="F22">
         <v>1199026</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>54470</v>
+      </c>
+      <c r="H22" s="92">
+        <f t="shared" si="1"/>
+        <v>4.5428539497892453E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -2486,8 +2700,16 @@
       <c r="F23">
         <v>310530</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>13914</v>
+      </c>
+      <c r="H23" s="92">
+        <f t="shared" si="1"/>
+        <v>4.4807264998550866E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -2506,8 +2728,16 @@
       <c r="F24">
         <v>562215</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>27450</v>
+      </c>
+      <c r="H24" s="92">
+        <f t="shared" si="1"/>
+        <v>4.8824737867186038E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -2526,8 +2756,16 @@
       <c r="F25">
         <v>826231</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>32717</v>
+      </c>
+      <c r="H25" s="92">
+        <f t="shared" si="1"/>
+        <v>3.9597884853025365E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -2546,8 +2784,16 @@
       <c r="F26">
         <v>19960</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>923</v>
+      </c>
+      <c r="H26" s="92">
+        <f t="shared" si="1"/>
+        <v>4.6242484969939879E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -2566,8 +2812,16 @@
       <c r="F27">
         <v>22210</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>958</v>
+      </c>
+      <c r="H27" s="92">
+        <f t="shared" si="1"/>
+        <v>4.3133723547951371E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2586,28 +2840,44 @@
       <c r="F28">
         <v>399550</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>19223</v>
+      </c>
+      <c r="H28" s="92">
+        <f t="shared" si="1"/>
+        <v>4.8111625578776122E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1">
+      <c r="A29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>2010</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>177</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>993</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>26180</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="H29" s="93">
+        <f t="shared" si="1"/>
+        <v>4.4690603514132926E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -2626,8 +2896,16 @@
       <c r="F30">
         <v>367510</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>18009</v>
+      </c>
+      <c r="H30" s="92">
+        <f t="shared" si="1"/>
+        <v>4.9002748224538109E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -2646,8 +2924,16 @@
       <c r="F31">
         <v>112430</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>5131</v>
+      </c>
+      <c r="H31" s="92">
+        <f t="shared" si="1"/>
+        <v>4.5637285422040381E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2666,8 +2952,16 @@
       <c r="F32">
         <v>148580</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>7340</v>
+      </c>
+      <c r="H32" s="92">
+        <f t="shared" si="1"/>
+        <v>4.9400996096379053E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2686,8 +2980,16 @@
       <c r="F33">
         <v>361815</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>16666</v>
+      </c>
+      <c r="H33" s="92">
+        <f t="shared" si="1"/>
+        <v>4.6062214114948249E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2706,8 +3008,16 @@
       <c r="F34">
         <v>290047</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>13080</v>
+      </c>
+      <c r="H34" s="92">
+        <f t="shared" si="1"/>
+        <v>4.5096139591169704E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -2726,8 +3036,16 @@
       <c r="F35">
         <v>539630</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>22390</v>
+      </c>
+      <c r="H35" s="92">
+        <f t="shared" si="1"/>
+        <v>4.1491392250245542E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3064,16 @@
       <c r="F36">
         <v>1194675</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>52471</v>
+      </c>
+      <c r="H36" s="92">
+        <f t="shared" si="1"/>
+        <v>4.3920731579718333E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -2766,8 +3092,16 @@
       <c r="F37">
         <v>309900</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>13186</v>
+      </c>
+      <c r="H37" s="92">
+        <f t="shared" si="1"/>
+        <v>4.2549209422394318E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -2786,8 +3120,16 @@
       <c r="F38">
         <v>561174</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>26302</v>
+      </c>
+      <c r="H38" s="92">
+        <f t="shared" si="1"/>
+        <v>4.6869598377686776E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2806,8 +3148,16 @@
       <c r="F39">
         <v>817727</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>31740</v>
+      </c>
+      <c r="H39" s="92">
+        <f t="shared" si="1"/>
+        <v>3.8814910110587027E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -2826,8 +3176,16 @@
       <c r="F40">
         <v>19890</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>894</v>
+      </c>
+      <c r="H40" s="92">
+        <f t="shared" si="1"/>
+        <v>4.4947209653092006E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2846,8 +3204,16 @@
       <c r="F41">
         <v>21980</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>907</v>
+      </c>
+      <c r="H41" s="92">
+        <f t="shared" si="1"/>
+        <v>4.1264786169244769E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2866,28 +3232,44 @@
       <c r="F42">
         <v>396942</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>18096</v>
+      </c>
+      <c r="H42" s="92">
+        <f t="shared" si="1"/>
+        <v>4.5588524268029083E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="2" customFormat="1">
+      <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>2009</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>181</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>939</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>0</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>26200</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="2">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+      <c r="H43" s="93">
+        <f t="shared" si="1"/>
+        <v>4.2748091603053436E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -2906,8 +3288,16 @@
       <c r="F44">
         <v>367020</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>16992</v>
+      </c>
+      <c r="H44" s="90">
+        <f t="shared" si="1"/>
+        <v>4.6297204512015695E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2926,8 +3316,16 @@
       <c r="F45">
         <v>111430</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>4902</v>
+      </c>
+      <c r="H45" s="90">
+        <f t="shared" si="1"/>
+        <v>4.3991743695593645E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -2946,8 +3344,16 @@
       <c r="F46">
         <v>148300</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>7003</v>
+      </c>
+      <c r="H46" s="90">
+        <f t="shared" si="1"/>
+        <v>4.722184760620364E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2966,8 +3372,16 @@
       <c r="F47">
         <v>360428</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>15937</v>
+      </c>
+      <c r="H47" s="90">
+        <f t="shared" si="1"/>
+        <v>4.421687549247006E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2986,8 +3400,16 @@
       <c r="F48">
         <v>288473</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>12661</v>
+      </c>
+      <c r="H48" s="90">
+        <f t="shared" si="1"/>
+        <v>4.3889722781681476E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -3006,8 +3428,16 @@
       <c r="F49">
         <v>535290</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>21145</v>
+      </c>
+      <c r="H49" s="90">
+        <f t="shared" si="1"/>
+        <v>3.950195221281922E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -3026,8 +3456,16 @@
       <c r="F50">
         <v>1192419</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>52333</v>
+      </c>
+      <c r="H50" s="90">
+        <f t="shared" si="1"/>
+        <v>4.3888096382228056E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -3046,8 +3484,16 @@
       <c r="F51">
         <v>308790</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>12842</v>
+      </c>
+      <c r="H51" s="90">
+        <f t="shared" si="1"/>
+        <v>4.1588134330774962E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -3066,8 +3512,16 @@
       <c r="F52">
         <v>560042</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>24915</v>
+      </c>
+      <c r="H52" s="90">
+        <f t="shared" si="1"/>
+        <v>4.4487734848457791E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -3086,8 +3540,16 @@
       <c r="F53">
         <v>809764</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>30394</v>
+      </c>
+      <c r="H53" s="90">
+        <f t="shared" si="1"/>
+        <v>3.75343927366492E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -3106,8 +3568,16 @@
       <c r="F54">
         <v>19860</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+      <c r="H54" s="90">
+        <f t="shared" si="1"/>
+        <v>4.355488418932528E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -3126,8 +3596,16 @@
       <c r="F55">
         <v>21950</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>868</v>
+      </c>
+      <c r="H55" s="90">
+        <f t="shared" si="1"/>
+        <v>3.9544419134396352E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -3146,28 +3624,44 @@
       <c r="F56">
         <v>394134</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>17269</v>
+      </c>
+      <c r="H56" s="90">
+        <f t="shared" si="1"/>
+        <v>4.381504767414128E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1">
+      <c r="A57" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>2008</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>182</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>883</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>1</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>26300</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="2">
+        <f t="shared" si="0"/>
+        <v>1066</v>
+      </c>
+      <c r="H57" s="91">
+        <f t="shared" si="1"/>
+        <v>4.0532319391634979E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -3186,8 +3680,16 @@
       <c r="F58">
         <v>366450</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>15912</v>
+      </c>
+      <c r="H58" s="90">
+        <f t="shared" si="1"/>
+        <v>4.3422022103970531E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -3206,8 +3708,16 @@
       <c r="F59">
         <v>110247</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>4596</v>
+      </c>
+      <c r="H59" s="90">
+        <f t="shared" si="1"/>
+        <v>4.1688209202971512E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -3226,8 +3736,16 @@
       <c r="F60">
         <v>148030</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>6736</v>
+      </c>
+      <c r="H60" s="90">
+        <f t="shared" si="1"/>
+        <v>4.5504289671012631E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -3246,8 +3764,16 @@
       <c r="F61">
         <v>358858</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>15371</v>
+      </c>
+      <c r="H61" s="90">
+        <f t="shared" si="1"/>
+        <v>4.2833098328586797E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -3266,8 +3792,16 @@
       <c r="F62">
         <v>286053</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>12154</v>
+      </c>
+      <c r="H62" s="90">
+        <f t="shared" si="1"/>
+        <v>4.2488629729455732E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -3286,8 +3820,16 @@
       <c r="F63">
         <v>529889</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>20622</v>
+      </c>
+      <c r="H63" s="90">
+        <f t="shared" si="1"/>
+        <v>3.8917584626214169E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -3306,8 +3848,16 @@
       <c r="F64">
         <v>1191584</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>48298</v>
+      </c>
+      <c r="H64" s="90">
+        <f t="shared" si="1"/>
+        <v>4.0532601981899723E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -3326,8 +3876,16 @@
       <c r="F65">
         <v>306701</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>11945</v>
+      </c>
+      <c r="H65" s="90">
+        <f t="shared" si="1"/>
+        <v>3.8946726616476635E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3346,8 +3904,16 @@
       <c r="F66">
         <v>558139</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>23839</v>
+      </c>
+      <c r="H66" s="90">
+        <f t="shared" si="1"/>
+        <v>4.2711582598599987E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -3366,8 +3932,16 @@
       <c r="F67">
         <v>801310</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <f t="shared" ref="G67:G71" si="2">SUM(C67:E67)</f>
+        <v>29731</v>
+      </c>
+      <c r="H67" s="90">
+        <f t="shared" ref="H67:H71" si="3">G67/F67</f>
+        <v>3.7102993847574595E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -3386,8 +3960,16 @@
       <c r="F68">
         <v>19770</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>821</v>
+      </c>
+      <c r="H68" s="90">
+        <f t="shared" si="3"/>
+        <v>4.1527567020738496E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -3406,8 +3988,16 @@
       <c r="F69">
         <v>21880</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>857</v>
+      </c>
+      <c r="H69" s="90">
+        <f t="shared" si="3"/>
+        <v>3.9168190127970751E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -3426,8 +4016,16 @@
       <c r="F70">
         <v>391639</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>16617</v>
+      </c>
+      <c r="H70" s="90">
+        <f t="shared" si="3"/>
+        <v>4.2429380117914715E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -3446,9 +4044,18 @@
       <c r="F71">
         <v>26350</v>
       </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="H71" s="90">
+        <f t="shared" si="3"/>
+        <v>3.8861480075901331E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3474,7 +4081,7 @@
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="85" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -3491,7 +4098,7 @@
       <c r="D1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="87" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3995,7 +4602,7 @@
       <c r="C31" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31" s="88">
         <v>78</v>
       </c>
     </row>
@@ -4154,7 +4761,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="86" t="s">
         <v>166</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4191,7 +4798,7 @@
       <c r="C45" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="89">
+      <c r="E45" s="88">
         <v>89.4</v>
       </c>
     </row>
@@ -4350,7 +4957,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="2" customFormat="1">
-      <c r="A57" s="87" t="s">
+      <c r="A57" s="86" t="s">
         <v>166</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -5151,11 +5758,11 @@
   </sheetPr>
   <dimension ref="A1:AY54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA12" sqref="BA12"/>
+      <selection pane="bottomRight" activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5163,7 +5770,7 @@
     <col min="1" max="1" width="5" style="43" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="69" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="68" customWidth="1"/>
     <col min="5" max="9" width="12.5" style="10" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" style="43"/>
     <col min="15" max="27" width="7.33203125" style="5" customWidth="1"/>
@@ -5175,130 +5782,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="76" t="s">
+      <c r="O1" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="R1" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="S1" s="76" t="s">
+      <c r="S1" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="T1" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="V1" s="76" t="s">
+      <c r="V1" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="W1" s="76" t="s">
+      <c r="W1" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="X1" s="76" t="s">
+      <c r="X1" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="Y1" s="76" t="s">
+      <c r="Y1" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="Z1" s="76" t="s">
+      <c r="Z1" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="AA1" s="76" t="s">
+      <c r="AA1" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="AB1" s="77" t="s">
+      <c r="AB1" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="AC1" s="78" t="s">
+      <c r="AC1" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" s="78" t="s">
+      <c r="AD1" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" s="78" t="s">
+      <c r="AE1" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="78" t="s">
+      <c r="AF1" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" s="78" t="s">
+      <c r="AG1" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="AH1" s="78" t="s">
+      <c r="AH1" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI1" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="AI1" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ1" s="78" t="s">
+      <c r="AJ1" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="AK1" s="78" t="s">
+      <c r="AK1" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="AL1" s="78" t="s">
+      <c r="AL1" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="AM1" s="78" t="s">
+      <c r="AM1" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="AN1" s="78" t="s">
+      <c r="AN1" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="AO1" s="78" t="s">
+      <c r="AO1" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="AP1" s="79" t="s">
+      <c r="AP1" s="78" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5312,7 +5919,7 @@
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>143</v>
       </c>
       <c r="E2" s="10">
@@ -5332,27 +5939,27 @@
         <v>0.6</v>
       </c>
       <c r="I2" s="10">
-        <f t="shared" ref="I2:I17" si="3">STDEV($O2:$AB2)</f>
+        <f t="shared" ref="I2:I33" si="3">STDEV($O2:$AB2)</f>
         <v>7.7032888651964018E-2</v>
       </c>
-      <c r="J2" s="63">
-        <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.05)</f>
+      <c r="J2" s="62">
+        <f t="shared" ref="J2:J33" si="4">_xlfn.PERCENTILE.INC($O2:$AB2,0.05)</f>
         <v>0.5</v>
       </c>
-      <c r="K2" s="63">
-        <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.25)</f>
+      <c r="K2" s="62">
+        <f t="shared" ref="K2:K33" si="5">_xlfn.PERCENTILE.INC($O2:$AB2,0.25)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="L2" s="63">
-        <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.5)</f>
+      <c r="L2" s="62">
+        <f t="shared" ref="L2:L33" si="6">_xlfn.PERCENTILE.INC($O2:$AB2,0.5)</f>
         <v>0.6</v>
       </c>
-      <c r="M2" s="63">
-        <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.75)</f>
+      <c r="M2" s="62">
+        <f t="shared" ref="M2:M33" si="7">_xlfn.PERCENTILE.INC($O2:$AB2,0.75)</f>
         <v>0.6</v>
       </c>
-      <c r="N2" s="65">
-        <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.95)</f>
+      <c r="N2" s="64">
+        <f t="shared" ref="N2:N33" si="8">_xlfn.PERCENTILE.INC($O2:$AB2,0.95)</f>
         <v>0.66999999999999993</v>
       </c>
       <c r="O2" s="8">
@@ -5371,10 +5978,10 @@
         <v>0.6</v>
       </c>
       <c r="T2" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="U2" s="8">
         <v>0.5</v>
-      </c>
-      <c r="U2" s="8">
-        <v>0.6</v>
       </c>
       <c r="V2" s="8">
         <v>0.6</v>
@@ -5400,7 +6007,7 @@
       <c r="AG2" s="7">
         <v>1606</v>
       </c>
-      <c r="AH2" s="7">
+      <c r="AI2" s="7">
         <v>6180</v>
       </c>
       <c r="AL2" s="7">
@@ -5421,7 +6028,7 @@
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="66" t="s">
         <v>143</v>
       </c>
       <c r="E3" s="10">
@@ -5444,24 +6051,24 @@
         <f t="shared" si="3"/>
         <v>0.30318818730794395</v>
       </c>
-      <c r="J3" s="63">
-        <f t="shared" ref="J3:J54" si="4">_xlfn.PERCENTILE.INC($O3:$AB3,0.05)</f>
+      <c r="J3" s="62">
+        <f t="shared" si="4"/>
         <v>2.63</v>
       </c>
-      <c r="K3" s="63">
-        <f t="shared" ref="K3:K54" si="5">_xlfn.PERCENTILE.INC($O3:$AB3,0.25)</f>
+      <c r="K3" s="62">
+        <f t="shared" si="5"/>
         <v>2.8249999999999997</v>
       </c>
-      <c r="L3" s="63">
-        <f>_xlfn.PERCENTILE.INC($O3:$AB3,0.5)</f>
+      <c r="L3" s="62">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M3" s="63">
-        <f t="shared" ref="M3:M54" si="6">_xlfn.PERCENTILE.INC($O3:$AB3,0.75)</f>
+      <c r="M3" s="62">
+        <f t="shared" si="7"/>
         <v>3.3</v>
       </c>
-      <c r="N3" s="65">
-        <f t="shared" ref="N3:N54" si="7">_xlfn.PERCENTILE.INC($O3:$AB3,0.95)</f>
+      <c r="N3" s="64">
+        <f t="shared" si="8"/>
         <v>3.4350000000000001</v>
       </c>
       <c r="O3" s="8">
@@ -5480,10 +6087,10 @@
         <v>3.3</v>
       </c>
       <c r="T3" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="U3" s="8">
         <v>3.4</v>
-      </c>
-      <c r="U3" s="8">
-        <v>2.9</v>
       </c>
       <c r="V3" s="8">
         <v>2.7</v>
@@ -5509,7 +6116,7 @@
       <c r="AG3" s="7">
         <v>12528</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AI3" s="7">
         <v>50005</v>
       </c>
       <c r="AL3" s="7">
@@ -5521,16 +6128,16 @@
       <c r="AP3" s="51"/>
     </row>
     <row r="4" spans="1:42" s="12" customFormat="1">
-      <c r="A4" s="56">
+      <c r="A4" s="79">
         <v>3</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="67" t="s">
         <v>144</v>
       </c>
       <c r="E4" s="11">
@@ -5553,93 +6160,122 @@
         <f t="shared" si="3"/>
         <v>6.1124984550212889E-2</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="62">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="62">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="L4" s="63">
-        <f t="shared" ref="L4:L54" si="8">_xlfn.PERCENTILE.INC($O4:$AB4,0.5)</f>
-        <v>0.6</v>
-      </c>
-      <c r="M4" s="63">
+      <c r="L4" s="62">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="N4" s="65">
+      <c r="M4" s="62">
         <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="N4" s="64">
+        <f t="shared" si="8"/>
         <v>0.6349999999999999</v>
       </c>
-      <c r="O4" s="58">
+      <c r="O4" s="57">
         <v>0.6</v>
       </c>
-      <c r="P4" s="59">
+      <c r="P4" s="58">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="58">
+      <c r="Q4" s="57">
         <v>0.6</v>
       </c>
-      <c r="R4" s="58">
+      <c r="R4" s="57">
         <v>0.5</v>
       </c>
-      <c r="S4" s="58">
+      <c r="S4" s="57">
         <v>0.6</v>
       </c>
-      <c r="T4" s="58">
+      <c r="T4" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="U4" s="57">
         <v>0.5</v>
       </c>
-      <c r="U4" s="58">
+      <c r="V4" s="57">
         <v>0.6</v>
       </c>
-      <c r="V4" s="58">
+      <c r="W4" s="57">
         <v>0.6</v>
       </c>
-      <c r="W4" s="58">
+      <c r="X4" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="Y4" s="57">
         <v>0.6</v>
       </c>
-      <c r="X4" s="58">
+      <c r="Z4" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="AA4" s="57">
         <v>0.5</v>
       </c>
-      <c r="Y4" s="58">
-        <v>0.6</v>
-      </c>
-      <c r="Z4" s="58">
-        <v>0.6</v>
-      </c>
-      <c r="AA4" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="AB4" s="61">
+      <c r="AB4" s="60">
         <v>0.7</v>
       </c>
-      <c r="AG4" s="12">
+      <c r="AC4" s="27">
+        <v>2221</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>614</v>
+      </c>
+      <c r="AE4" s="27">
+        <v>893</v>
+      </c>
+      <c r="AF4" s="27">
+        <v>1969</v>
+      </c>
+      <c r="AG4" s="27">
         <v>1606</v>
       </c>
-      <c r="AH4" s="12">
+      <c r="AH4" s="27">
+        <v>3053</v>
+      </c>
+      <c r="AI4" s="27">
         <v>6180</v>
       </c>
-      <c r="AL4" s="12">
+      <c r="AJ4" s="27">
+        <v>1758</v>
+      </c>
+      <c r="AK4" s="27">
+        <v>3513</v>
+      </c>
+      <c r="AL4" s="27">
         <v>4175</v>
       </c>
-      <c r="AO4" s="12">
+      <c r="AM4" s="27">
+        <v>120</v>
+      </c>
+      <c r="AN4" s="27">
+        <v>124</v>
+      </c>
+      <c r="AO4" s="27">
         <v>1864</v>
       </c>
-      <c r="AP4" s="56"/>
+      <c r="AP4" s="28">
+        <v>182</v>
+      </c>
     </row>
     <row r="5" spans="1:42">
-      <c r="A5" s="43">
+      <c r="A5" s="79">
         <v>4</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E5" s="10">
@@ -5660,81 +6296,111 @@
       </c>
       <c r="I5" s="10">
         <f t="shared" si="3"/>
-        <v>0.38949107397127447</v>
-      </c>
-      <c r="J5" s="63">
+        <v>0.38949107397127442</v>
+      </c>
+      <c r="J5" s="62">
         <f t="shared" si="4"/>
         <v>3.6949999999999998</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="62">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="62">
+        <f t="shared" si="6"/>
+        <v>4.25</v>
+      </c>
+      <c r="M5" s="62">
+        <f t="shared" si="7"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N5" s="64">
         <f t="shared" si="8"/>
-        <v>4.25</v>
-      </c>
-      <c r="M5" s="63">
-        <f t="shared" si="6"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O5" s="59">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P5" s="58">
+        <v>4.3</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R5" s="59">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N5" s="65">
-        <f t="shared" si="7"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O5" s="60">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P5" s="59">
+      <c r="S5" s="59">
         <v>4.3</v>
       </c>
-      <c r="Q5" s="60">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="R5" s="60">
+      <c r="T5" s="59">
+        <v>3.8</v>
+      </c>
+      <c r="U5" s="59">
+        <v>4.2</v>
+      </c>
+      <c r="V5" s="59">
+        <v>4</v>
+      </c>
+      <c r="W5" s="59">
         <v>4.4000000000000004</v>
       </c>
-      <c r="S5" s="60">
-        <v>4.3</v>
-      </c>
-      <c r="T5" s="60">
+      <c r="X5" s="59">
+        <v>3.5</v>
+      </c>
+      <c r="Y5" s="59">
         <v>4.2</v>
       </c>
-      <c r="U5" s="60">
-        <v>3.8</v>
-      </c>
-      <c r="V5" s="60">
+      <c r="Z5" s="59">
+        <v>3.9</v>
+      </c>
+      <c r="AA5" s="59">
+        <v>4.5</v>
+      </c>
+      <c r="AB5" s="61">
         <v>4</v>
       </c>
-      <c r="W5" s="60">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X5" s="60">
-        <v>3.5</v>
-      </c>
-      <c r="Y5" s="60">
-        <v>4.2</v>
-      </c>
-      <c r="Z5" s="60">
-        <v>3.9</v>
-      </c>
-      <c r="AA5" s="60">
-        <v>4.5</v>
-      </c>
-      <c r="AB5" s="62">
-        <v>4</v>
-      </c>
-      <c r="AG5" s="4">
+      <c r="AC5" s="27">
+        <v>17919</v>
+      </c>
+      <c r="AD5" s="27">
+        <v>4846</v>
+      </c>
+      <c r="AE5" s="27">
+        <v>7236</v>
+      </c>
+      <c r="AF5" s="27">
+        <v>16164</v>
+      </c>
+      <c r="AG5" s="27">
         <v>12528</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH5" s="27">
+        <v>20902</v>
+      </c>
+      <c r="AI5" s="27">
         <v>50005</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AJ5" s="27">
+        <v>12479</v>
+      </c>
+      <c r="AK5" s="27">
+        <v>24998</v>
+      </c>
+      <c r="AL5" s="27">
         <v>29551</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AM5" s="27">
+        <v>853</v>
+      </c>
+      <c r="AN5" s="27">
+        <v>871</v>
+      </c>
+      <c r="AO5" s="27">
         <v>18104</v>
+      </c>
+      <c r="AP5" s="28">
+        <v>1058</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -5747,7 +6413,7 @@
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="10">
@@ -5770,24 +6436,24 @@
         <f t="shared" si="3"/>
         <v>0.59595707493479344</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="62">
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="62">
         <f t="shared" si="5"/>
         <v>0.82500000000000007</v>
       </c>
-      <c r="L6" s="63">
+      <c r="L6" s="62">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="M6" s="62">
+        <f t="shared" si="7"/>
+        <v>1.5250000000000001</v>
+      </c>
+      <c r="N6" s="64">
         <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="M6" s="63">
-        <f t="shared" si="6"/>
-        <v>1.5250000000000001</v>
-      </c>
-      <c r="N6" s="65">
-        <f t="shared" si="7"/>
         <v>2.1799999999999997</v>
       </c>
       <c r="O6" s="5">
@@ -5806,10 +6472,10 @@
         <v>0.7</v>
       </c>
       <c r="T6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U6" s="5">
         <v>0.9</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0.8</v>
       </c>
       <c r="V6" s="5">
         <v>1.9</v>
@@ -5835,7 +6501,7 @@
       <c r="AG6" s="4">
         <v>1933</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AI6" s="4">
         <v>11007</v>
       </c>
       <c r="AL6" s="4">
@@ -5855,7 +6521,7 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E7" s="39">
@@ -5878,24 +6544,24 @@
         <f t="shared" si="3"/>
         <v>0.33479532865306244</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="63">
         <f t="shared" si="4"/>
         <v>3.03</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="63">
         <f t="shared" si="5"/>
         <v>3.4</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="63">
+        <f t="shared" si="6"/>
+        <v>3.55</v>
+      </c>
+      <c r="M7" s="63">
+        <f t="shared" si="7"/>
+        <v>3.875</v>
+      </c>
+      <c r="N7" s="65">
         <f t="shared" si="8"/>
-        <v>3.55</v>
-      </c>
-      <c r="M7" s="64">
-        <f t="shared" si="6"/>
-        <v>3.875</v>
-      </c>
-      <c r="N7" s="66">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O7" s="37">
@@ -5914,10 +6580,10 @@
         <v>3.4</v>
       </c>
       <c r="T7" s="37">
+        <v>3.6</v>
+      </c>
+      <c r="U7" s="37">
         <v>3.5</v>
-      </c>
-      <c r="U7" s="37">
-        <v>3.6</v>
       </c>
       <c r="V7" s="37">
         <v>3.8</v>
@@ -5943,7 +6609,7 @@
       <c r="AG7" s="2">
         <v>495</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AI7" s="2">
         <v>2078</v>
       </c>
       <c r="AL7" s="2">
@@ -5955,16 +6621,16 @@
       <c r="AP7" s="44"/>
     </row>
     <row r="8" spans="1:42" ht="14" customHeight="1">
-      <c r="A8" s="80">
+      <c r="A8" s="79">
         <v>7</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="10">
@@ -5987,24 +6653,24 @@
         <f t="shared" si="3"/>
         <v>3.1539962440834168</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="62">
         <f t="shared" si="4"/>
         <v>84.484999999999999</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="62">
         <f t="shared" si="5"/>
         <v>86.85</v>
       </c>
-      <c r="L8" s="63">
+      <c r="L8" s="62">
+        <f t="shared" si="6"/>
+        <v>89.050000000000011</v>
+      </c>
+      <c r="M8" s="62">
+        <f t="shared" si="7"/>
+        <v>91.449999999999989</v>
+      </c>
+      <c r="N8" s="64">
         <f t="shared" si="8"/>
-        <v>89.050000000000011</v>
-      </c>
-      <c r="M8" s="63">
-        <f t="shared" si="6"/>
-        <v>91.449999999999989</v>
-      </c>
-      <c r="N8" s="65">
-        <f t="shared" si="7"/>
         <v>93.070000000000007</v>
       </c>
       <c r="O8" s="5">
@@ -6023,10 +6689,10 @@
         <v>84.9</v>
       </c>
       <c r="T8" s="5">
+        <v>92.3</v>
+      </c>
+      <c r="U8" s="5">
         <v>88</v>
-      </c>
-      <c r="U8" s="5">
-        <v>92.3</v>
       </c>
       <c r="V8" s="5">
         <v>89.7</v>
@@ -6052,10 +6718,10 @@
       <c r="AG8" s="12">
         <v>11962</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12">
         <v>49251</v>
       </c>
-      <c r="AI8" s="12"/>
       <c r="AL8" s="12">
         <v>30571</v>
       </c>
@@ -6064,16 +6730,16 @@
       </c>
     </row>
     <row r="9" spans="1:42">
-      <c r="A9" s="80">
+      <c r="A9" s="79">
         <v>8</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E9" s="10">
@@ -6096,24 +6762,24 @@
         <f t="shared" si="3"/>
         <v>6.4222869159489626</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="62">
         <f t="shared" si="4"/>
         <v>80.015000000000001</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="62">
         <f t="shared" si="5"/>
         <v>83.95</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="62">
+        <f t="shared" si="6"/>
+        <v>87.15</v>
+      </c>
+      <c r="M9" s="62">
+        <f t="shared" si="7"/>
+        <v>93.1</v>
+      </c>
+      <c r="N9" s="64">
         <f t="shared" si="8"/>
-        <v>87.15</v>
-      </c>
-      <c r="M9" s="63">
-        <f t="shared" si="6"/>
-        <v>93.1</v>
-      </c>
-      <c r="N9" s="65">
-        <f t="shared" si="7"/>
         <v>97.64</v>
       </c>
       <c r="O9" s="5">
@@ -6132,10 +6798,10 @@
         <v>87.2</v>
       </c>
       <c r="T9" s="5">
+        <v>91.9</v>
+      </c>
+      <c r="U9" s="5">
         <v>85.6</v>
-      </c>
-      <c r="U9" s="5">
-        <v>91.9</v>
       </c>
       <c r="V9" s="5">
         <v>83.4</v>
@@ -6161,10 +6827,10 @@
       <c r="AG9" s="12">
         <v>1400</v>
       </c>
-      <c r="AH9" s="12">
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12">
         <v>5292</v>
       </c>
-      <c r="AI9" s="12"/>
       <c r="AL9" s="12">
         <v>3404</v>
       </c>
@@ -6173,16 +6839,16 @@
       </c>
     </row>
     <row r="10" spans="1:42">
-      <c r="A10" s="80">
+      <c r="A10" s="79">
         <v>9</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E10" s="10">
@@ -6205,24 +6871,24 @@
         <f t="shared" si="3"/>
         <v>3.2414214762682714</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J10" s="62">
         <f t="shared" si="4"/>
         <v>88.314999999999998</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="62">
         <f t="shared" si="5"/>
         <v>91.1</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="62">
+        <f t="shared" si="6"/>
+        <v>92.15</v>
+      </c>
+      <c r="M10" s="62">
+        <f t="shared" si="7"/>
+        <v>95.674999999999997</v>
+      </c>
+      <c r="N10" s="64">
         <f t="shared" si="8"/>
-        <v>92.15</v>
-      </c>
-      <c r="M10" s="63">
-        <f t="shared" si="6"/>
-        <v>95.674999999999997</v>
-      </c>
-      <c r="N10" s="65">
-        <f t="shared" si="7"/>
         <v>96.78</v>
       </c>
       <c r="O10" s="5">
@@ -6241,10 +6907,10 @@
         <v>94.3</v>
       </c>
       <c r="T10" s="5">
+        <v>95.6</v>
+      </c>
+      <c r="U10" s="5">
         <v>90.3</v>
-      </c>
-      <c r="U10" s="5">
-        <v>95.6</v>
       </c>
       <c r="V10" s="5">
         <v>92.1</v>
@@ -6270,10 +6936,10 @@
       <c r="AG10" s="12">
         <v>11813</v>
       </c>
-      <c r="AH10" s="12">
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12">
         <v>45162</v>
       </c>
-      <c r="AI10" s="12"/>
       <c r="AL10" s="12">
         <v>2503</v>
       </c>
@@ -6282,16 +6948,16 @@
       </c>
     </row>
     <row r="11" spans="1:42">
-      <c r="A11" s="80">
+      <c r="A11" s="79">
         <v>10</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="10">
@@ -6314,24 +6980,24 @@
         <f t="shared" si="3"/>
         <v>3.9666258809119985</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="62">
         <f t="shared" si="4"/>
         <v>79.984999999999999</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="62">
         <f t="shared" si="5"/>
         <v>83.724999999999994</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="62">
+        <f t="shared" si="6"/>
+        <v>86.55</v>
+      </c>
+      <c r="M11" s="62">
+        <f t="shared" si="7"/>
+        <v>88.75</v>
+      </c>
+      <c r="N11" s="64">
         <f t="shared" si="8"/>
-        <v>86.55</v>
-      </c>
-      <c r="M11" s="63">
-        <f t="shared" si="6"/>
-        <v>88.75</v>
-      </c>
-      <c r="N11" s="65">
-        <f t="shared" si="7"/>
         <v>90.795000000000002</v>
       </c>
       <c r="O11" s="5">
@@ -6350,10 +7016,10 @@
         <v>76.8</v>
       </c>
       <c r="T11" s="5">
+        <v>85.7</v>
+      </c>
+      <c r="U11" s="5">
         <v>87.4</v>
-      </c>
-      <c r="U11" s="5">
-        <v>85.7</v>
       </c>
       <c r="V11" s="5">
         <v>83.8</v>
@@ -6379,10 +7045,10 @@
       <c r="AG11" s="12">
         <v>1234</v>
       </c>
-      <c r="AH11" s="12">
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12">
         <v>5404</v>
       </c>
-      <c r="AI11" s="12"/>
       <c r="AL11" s="12">
         <v>3736</v>
       </c>
@@ -6391,16 +7057,16 @@
       </c>
     </row>
     <row r="12" spans="1:42">
-      <c r="A12" s="80">
+      <c r="A12" s="79">
         <v>11</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E12" s="10">
@@ -6423,24 +7089,24 @@
         <f t="shared" si="3"/>
         <v>2.4795094339338641</v>
       </c>
-      <c r="J12" s="63">
+      <c r="J12" s="62">
         <f t="shared" si="4"/>
         <v>90.39</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="62">
         <f t="shared" si="5"/>
         <v>93.125</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="62">
+        <f t="shared" si="6"/>
+        <v>95.65</v>
+      </c>
+      <c r="M12" s="62">
+        <f t="shared" si="7"/>
+        <v>96.275000000000006</v>
+      </c>
+      <c r="N12" s="64">
         <f t="shared" si="8"/>
-        <v>95.65</v>
-      </c>
-      <c r="M12" s="63">
-        <f t="shared" si="6"/>
-        <v>96.275000000000006</v>
-      </c>
-      <c r="N12" s="65">
-        <f t="shared" si="7"/>
         <v>97.364999999999995</v>
       </c>
       <c r="O12" s="5">
@@ -6459,10 +7125,10 @@
         <v>90.6</v>
       </c>
       <c r="T12" s="5">
+        <v>96.7</v>
+      </c>
+      <c r="U12" s="5">
         <v>93.1</v>
-      </c>
-      <c r="U12" s="5">
-        <v>96.7</v>
       </c>
       <c r="V12" s="5">
         <v>95.6</v>
@@ -6488,10 +7154,10 @@
       <c r="AG12" s="12">
         <v>11345</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12">
         <v>46535</v>
       </c>
-      <c r="AI12" s="12"/>
       <c r="AL12" s="12">
         <v>28307</v>
       </c>
@@ -6500,16 +7166,16 @@
       </c>
     </row>
     <row r="13" spans="1:42">
-      <c r="A13" s="80">
+      <c r="A13" s="79">
         <v>12</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E13" s="10">
@@ -6532,24 +7198,24 @@
         <f t="shared" si="3"/>
         <v>5.5792196862726513</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="62">
         <f t="shared" si="4"/>
         <v>71.795000000000002</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="62">
         <f t="shared" si="5"/>
         <v>77.974999999999994</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="62">
+        <f t="shared" si="6"/>
+        <v>80.25</v>
+      </c>
+      <c r="M13" s="62">
+        <f t="shared" si="7"/>
+        <v>82.05</v>
+      </c>
+      <c r="N13" s="64">
         <f t="shared" si="8"/>
-        <v>80.25</v>
-      </c>
-      <c r="M13" s="63">
-        <f t="shared" si="6"/>
-        <v>82.05</v>
-      </c>
-      <c r="N13" s="65">
-        <f t="shared" si="7"/>
         <v>87.78</v>
       </c>
       <c r="O13" s="5">
@@ -6568,10 +7234,10 @@
         <v>80.3</v>
       </c>
       <c r="T13" s="5">
+        <v>78.7</v>
+      </c>
+      <c r="U13" s="5">
         <v>71.599999999999994</v>
-      </c>
-      <c r="U13" s="5">
-        <v>78.7</v>
       </c>
       <c r="V13" s="5">
         <v>78.5</v>
@@ -6597,10 +7263,10 @@
       <c r="AG13" s="12">
         <v>1248</v>
       </c>
-      <c r="AH13" s="12">
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12">
         <v>4271</v>
       </c>
-      <c r="AI13" s="12"/>
       <c r="AL13" s="12">
         <v>3306</v>
       </c>
@@ -6609,16 +7275,16 @@
       </c>
     </row>
     <row r="14" spans="1:42">
-      <c r="A14" s="80">
+      <c r="A14" s="79">
         <v>13</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E14" s="10">
@@ -6641,24 +7307,24 @@
         <f t="shared" si="3"/>
         <v>2.8394106337852465</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="62">
         <f t="shared" si="4"/>
         <v>88.225000000000009</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="62">
         <f t="shared" si="5"/>
         <v>89.375</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="62">
+        <f t="shared" si="6"/>
+        <v>91.8</v>
+      </c>
+      <c r="M14" s="62">
+        <f t="shared" si="7"/>
+        <v>94.224999999999994</v>
+      </c>
+      <c r="N14" s="64">
         <f t="shared" si="8"/>
-        <v>91.8</v>
-      </c>
-      <c r="M14" s="63">
-        <f t="shared" si="6"/>
-        <v>94.224999999999994</v>
-      </c>
-      <c r="N14" s="65">
-        <f t="shared" si="7"/>
         <v>95.8</v>
       </c>
       <c r="O14" s="5">
@@ -6677,10 +7343,10 @@
         <v>92.3</v>
       </c>
       <c r="T14" s="5">
+        <v>94.5</v>
+      </c>
+      <c r="U14" s="5">
         <v>87.9</v>
-      </c>
-      <c r="U14" s="5">
-        <v>94.5</v>
       </c>
       <c r="V14" s="5">
         <v>90.8</v>
@@ -6706,10 +7372,10 @@
       <c r="AG14" s="12">
         <v>11565</v>
       </c>
-      <c r="AH14" s="12">
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12">
         <v>43956</v>
       </c>
-      <c r="AI14" s="12"/>
       <c r="AL14" s="12">
         <v>26978</v>
       </c>
@@ -6727,7 +7393,7 @@
       <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E15" s="10">
@@ -6750,24 +7416,24 @@
         <f t="shared" si="3"/>
         <v>1.7801253197025622</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="62">
         <f t="shared" si="4"/>
         <v>93.28</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="62">
         <f t="shared" si="5"/>
         <v>94.5</v>
       </c>
-      <c r="L15" s="63">
+      <c r="L15" s="62">
+        <f t="shared" si="6"/>
+        <v>95.45</v>
+      </c>
+      <c r="M15" s="62">
+        <f t="shared" si="7"/>
+        <v>95.7</v>
+      </c>
+      <c r="N15" s="64">
         <f t="shared" si="8"/>
-        <v>95.45</v>
-      </c>
-      <c r="M15" s="63">
-        <f t="shared" si="6"/>
-        <v>95.7</v>
-      </c>
-      <c r="N15" s="65">
-        <f t="shared" si="7"/>
         <v>98.649999999999991</v>
       </c>
       <c r="O15" s="5">
@@ -6786,10 +7452,10 @@
         <v>98.3</v>
       </c>
       <c r="T15" s="5">
+        <v>94.7</v>
+      </c>
+      <c r="U15" s="5">
         <v>95.5</v>
-      </c>
-      <c r="U15" s="5">
-        <v>94.7</v>
       </c>
       <c r="V15" s="5">
         <v>94</v>
@@ -6815,10 +7481,10 @@
       <c r="AG15" s="12">
         <v>1579</v>
       </c>
-      <c r="AH15" s="12">
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12">
         <v>5901</v>
       </c>
-      <c r="AI15" s="12"/>
       <c r="AL15" s="12">
         <v>4144</v>
       </c>
@@ -6836,7 +7502,7 @@
       <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E16" s="10">
@@ -6859,24 +7525,24 @@
         <f t="shared" si="3"/>
         <v>0.43809026115981642</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="62">
         <f t="shared" si="4"/>
         <v>98.850000000000009</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="62">
         <f t="shared" si="5"/>
         <v>99.5</v>
       </c>
-      <c r="L16" s="63">
+      <c r="L16" s="62">
+        <f t="shared" si="6"/>
+        <v>99.65</v>
+      </c>
+      <c r="M16" s="62">
+        <f t="shared" si="7"/>
+        <v>99.8</v>
+      </c>
+      <c r="N16" s="64">
         <f t="shared" si="8"/>
-        <v>99.65</v>
-      </c>
-      <c r="M16" s="63">
-        <f t="shared" si="6"/>
-        <v>99.8</v>
-      </c>
-      <c r="N16" s="65">
-        <f t="shared" si="7"/>
         <v>99.9</v>
       </c>
       <c r="O16" s="5">
@@ -6895,10 +7561,10 @@
         <v>99.5</v>
       </c>
       <c r="T16" s="5">
+        <v>99.8</v>
+      </c>
+      <c r="U16" s="5">
         <v>99.2</v>
-      </c>
-      <c r="U16" s="5">
-        <v>99.8</v>
       </c>
       <c r="V16" s="5">
         <v>99.7</v>
@@ -6924,10 +7590,10 @@
       <c r="AG16" s="12">
         <v>12467</v>
       </c>
-      <c r="AH16" s="12">
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12">
         <v>49627</v>
       </c>
-      <c r="AI16" s="12"/>
       <c r="AL16" s="12">
         <v>29509</v>
       </c>
@@ -6945,7 +7611,7 @@
       <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E17" s="10">
@@ -6968,24 +7634,24 @@
         <f t="shared" si="3"/>
         <v>5.5839300430140355</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="62">
         <f t="shared" si="4"/>
         <v>75.989999999999995</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="62">
         <f t="shared" si="5"/>
         <v>81.974999999999994</v>
       </c>
-      <c r="L17" s="63">
+      <c r="L17" s="62">
+        <f t="shared" si="6"/>
+        <v>86.05</v>
+      </c>
+      <c r="M17" s="62">
+        <f t="shared" si="7"/>
+        <v>88.924999999999997</v>
+      </c>
+      <c r="N17" s="64">
         <f t="shared" si="8"/>
-        <v>86.05</v>
-      </c>
-      <c r="M17" s="63">
-        <f t="shared" si="6"/>
-        <v>88.924999999999997</v>
-      </c>
-      <c r="N17" s="65">
-        <f t="shared" si="7"/>
         <v>91.614999999999995</v>
       </c>
       <c r="O17" s="5">
@@ -7004,10 +7670,10 @@
         <v>87.3</v>
       </c>
       <c r="T17" s="5">
+        <v>87</v>
+      </c>
+      <c r="U17" s="5">
         <v>75.599999999999994</v>
-      </c>
-      <c r="U17" s="5">
-        <v>87</v>
       </c>
       <c r="V17" s="5">
         <v>78.5</v>
@@ -7033,10 +7699,10 @@
       <c r="AG17" s="12">
         <v>1356</v>
       </c>
-      <c r="AH17" s="12">
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12">
         <v>4511</v>
       </c>
-      <c r="AI17" s="12"/>
       <c r="AL17" s="12">
         <v>3309</v>
       </c>
@@ -7054,7 +7720,7 @@
       <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E18" s="10">
@@ -7074,27 +7740,27 @@
         <v>93.6</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" ref="I18:I54" si="9">STDEV($O18:$AB18)</f>
+        <f t="shared" si="3"/>
         <v>3.611702590800578</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="62">
         <f t="shared" si="4"/>
         <v>87.825000000000003</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="62">
         <f t="shared" si="5"/>
         <v>89.825000000000003</v>
       </c>
-      <c r="L18" s="63">
+      <c r="L18" s="62">
+        <f t="shared" si="6"/>
+        <v>93.6</v>
+      </c>
+      <c r="M18" s="62">
+        <f t="shared" si="7"/>
+        <v>96.575000000000003</v>
+      </c>
+      <c r="N18" s="64">
         <f t="shared" si="8"/>
-        <v>93.6</v>
-      </c>
-      <c r="M18" s="63">
-        <f t="shared" si="6"/>
-        <v>96.575000000000003</v>
-      </c>
-      <c r="N18" s="65">
-        <f t="shared" si="7"/>
         <v>97.034999999999997</v>
       </c>
       <c r="O18" s="5">
@@ -7113,10 +7779,10 @@
         <v>95.9</v>
       </c>
       <c r="T18" s="5">
+        <v>96.8</v>
+      </c>
+      <c r="U18" s="5">
         <v>89.7</v>
-      </c>
-      <c r="U18" s="5">
-        <v>96.8</v>
       </c>
       <c r="V18" s="5">
         <v>87.5</v>
@@ -7142,10 +7808,10 @@
       <c r="AG18" s="12">
         <v>12011</v>
       </c>
-      <c r="AH18" s="12">
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12">
         <v>44851</v>
       </c>
-      <c r="AI18" s="12"/>
       <c r="AL18" s="12">
         <v>26643</v>
       </c>
@@ -7163,7 +7829,7 @@
       <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E19" s="10">
@@ -7183,27 +7849,27 @@
         <v>58.95</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>13.083848360176335</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="62">
         <f t="shared" si="4"/>
         <v>40.954999999999998</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="62">
         <f t="shared" si="5"/>
         <v>53.125</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="62">
+        <f t="shared" si="6"/>
+        <v>58.95</v>
+      </c>
+      <c r="M19" s="62">
+        <f t="shared" si="7"/>
+        <v>64.150000000000006</v>
+      </c>
+      <c r="N19" s="64">
         <f t="shared" si="8"/>
-        <v>58.95</v>
-      </c>
-      <c r="M19" s="63">
-        <f t="shared" si="6"/>
-        <v>64.150000000000006</v>
-      </c>
-      <c r="N19" s="65">
-        <f t="shared" si="7"/>
         <v>75.5</v>
       </c>
       <c r="O19" s="5">
@@ -7222,10 +7888,10 @@
         <v>51.1</v>
       </c>
       <c r="T19" s="5">
+        <v>63.2</v>
+      </c>
+      <c r="U19" s="5">
         <v>53.4</v>
-      </c>
-      <c r="U19" s="5">
-        <v>63.2</v>
       </c>
       <c r="V19" s="5">
         <v>53.2</v>
@@ -7251,10 +7917,10 @@
       <c r="AG19" s="12">
         <v>794</v>
       </c>
-      <c r="AH19" s="12">
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12">
         <v>3185</v>
       </c>
-      <c r="AI19" s="12"/>
       <c r="AL19" s="12">
         <v>2345</v>
       </c>
@@ -7272,7 +7938,7 @@
       <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E20" s="10">
@@ -7292,27 +7958,27 @@
         <v>69.5</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>21.874809889283799</v>
       </c>
-      <c r="J20" s="63">
+      <c r="J20" s="62">
         <f t="shared" si="4"/>
         <v>21.949999999999996</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="62">
         <f t="shared" si="5"/>
         <v>62.075000000000003</v>
       </c>
-      <c r="L20" s="63">
+      <c r="L20" s="62">
+        <f t="shared" si="6"/>
+        <v>69.5</v>
+      </c>
+      <c r="M20" s="62">
+        <f t="shared" si="7"/>
+        <v>75.375</v>
+      </c>
+      <c r="N20" s="64">
         <f t="shared" si="8"/>
-        <v>69.5</v>
-      </c>
-      <c r="M20" s="63">
-        <f t="shared" si="6"/>
-        <v>75.375</v>
-      </c>
-      <c r="N20" s="65">
-        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="O20" s="5">
@@ -7331,10 +7997,10 @@
         <v>61.9</v>
       </c>
       <c r="T20" s="5">
+        <v>84.3</v>
+      </c>
+      <c r="U20" s="5">
         <v>62.6</v>
-      </c>
-      <c r="U20" s="5">
-        <v>84.3</v>
       </c>
       <c r="V20" s="5">
         <v>70.5</v>
@@ -7360,10 +8026,10 @@
       <c r="AG20" s="12">
         <v>7754</v>
       </c>
-      <c r="AH20" s="12">
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12">
         <v>31280</v>
       </c>
-      <c r="AI20" s="12"/>
       <c r="AL20" s="12">
         <v>19347</v>
       </c>
@@ -7381,7 +8047,7 @@
       <c r="C21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E21" s="10">
@@ -7401,27 +8067,27 @@
         <v>41.55</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>31.260363556272502</v>
       </c>
-      <c r="J21" s="63">
+      <c r="J21" s="62">
         <f t="shared" si="4"/>
         <v>11.26</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="62">
         <f t="shared" si="5"/>
         <v>22.875</v>
       </c>
-      <c r="L21" s="63">
+      <c r="L21" s="62">
+        <f t="shared" si="6"/>
+        <v>41.55</v>
+      </c>
+      <c r="M21" s="62">
+        <f t="shared" si="7"/>
+        <v>78.074999999999989</v>
+      </c>
+      <c r="N21" s="64">
         <f t="shared" si="8"/>
-        <v>41.55</v>
-      </c>
-      <c r="M21" s="63">
-        <f t="shared" si="6"/>
-        <v>78.074999999999989</v>
-      </c>
-      <c r="N21" s="65">
-        <f t="shared" si="7"/>
         <v>90.254999999999995</v>
       </c>
       <c r="O21" s="5">
@@ -7440,10 +8106,10 @@
         <v>19.8</v>
       </c>
       <c r="T21" s="5">
+        <v>86.2</v>
+      </c>
+      <c r="U21" s="5">
         <v>50.2</v>
-      </c>
-      <c r="U21" s="5">
-        <v>86.2</v>
       </c>
       <c r="V21" s="5">
         <v>78.099999999999994</v>
@@ -7469,10 +8135,10 @@
       <c r="AG21" s="12">
         <v>283</v>
       </c>
-      <c r="AH21" s="12">
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12">
         <v>2804</v>
       </c>
-      <c r="AI21" s="12"/>
       <c r="AL21" s="12">
         <v>1257</v>
       </c>
@@ -7490,7 +8156,7 @@
       <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E22" s="10">
@@ -7510,27 +8176,27 @@
         <v>60.55</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="9"/>
-        <v>31.609872049551402</v>
-      </c>
-      <c r="J22" s="63">
+        <f t="shared" si="3"/>
+        <v>31.609872049551409</v>
+      </c>
+      <c r="J22" s="62">
         <f t="shared" si="4"/>
         <v>12.315</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="62">
         <f t="shared" si="5"/>
         <v>34.799999999999997</v>
       </c>
-      <c r="L22" s="63">
+      <c r="L22" s="62">
+        <f t="shared" si="6"/>
+        <v>60.55</v>
+      </c>
+      <c r="M22" s="62">
+        <f t="shared" si="7"/>
+        <v>87.075000000000003</v>
+      </c>
+      <c r="N22" s="64">
         <f t="shared" si="8"/>
-        <v>60.55</v>
-      </c>
-      <c r="M22" s="63">
-        <f t="shared" si="6"/>
-        <v>87.075000000000003</v>
-      </c>
-      <c r="N22" s="65">
-        <f t="shared" si="7"/>
         <v>95.31</v>
       </c>
       <c r="O22" s="5">
@@ -7549,10 +8215,10 @@
         <v>36.299999999999997</v>
       </c>
       <c r="T22" s="5">
+        <v>95.1</v>
+      </c>
+      <c r="U22" s="5">
         <v>67.5</v>
-      </c>
-      <c r="U22" s="5">
-        <v>95.1</v>
       </c>
       <c r="V22" s="5">
         <v>87.5</v>
@@ -7578,10 +8244,10 @@
       <c r="AG22" s="12">
         <v>4541</v>
       </c>
-      <c r="AH22" s="12">
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12">
         <v>33726</v>
       </c>
-      <c r="AI22" s="12"/>
       <c r="AL22" s="12">
         <v>15826</v>
       </c>
@@ -7590,16 +8256,16 @@
       </c>
     </row>
     <row r="23" spans="1:42">
-      <c r="A23" s="80">
+      <c r="A23" s="79">
         <v>22</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E23" s="10">
@@ -7619,27 +8285,27 @@
         <v>82.35</v>
       </c>
       <c r="I23" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>5.5237151059254135</v>
       </c>
-      <c r="J23" s="63">
+      <c r="J23" s="62">
         <f t="shared" si="4"/>
         <v>75.89</v>
       </c>
-      <c r="K23" s="63">
+      <c r="K23" s="62">
         <f t="shared" si="5"/>
         <v>79.625</v>
       </c>
-      <c r="L23" s="63">
+      <c r="L23" s="62">
+        <f t="shared" si="6"/>
+        <v>82.35</v>
+      </c>
+      <c r="M23" s="62">
+        <f t="shared" si="7"/>
+        <v>84.725000000000009</v>
+      </c>
+      <c r="N23" s="64">
         <f t="shared" si="8"/>
-        <v>82.35</v>
-      </c>
-      <c r="M23" s="63">
-        <f t="shared" si="6"/>
-        <v>84.725000000000009</v>
-      </c>
-      <c r="N23" s="65">
-        <f t="shared" si="7"/>
         <v>92.27000000000001</v>
       </c>
       <c r="O23" s="5">
@@ -7658,10 +8324,10 @@
         <v>81.2</v>
       </c>
       <c r="T23" s="5">
+        <v>84.9</v>
+      </c>
+      <c r="U23" s="5">
         <v>77.3</v>
-      </c>
-      <c r="U23" s="5">
-        <v>84.9</v>
       </c>
       <c r="V23" s="5">
         <v>76.099999999999994</v>
@@ -7687,10 +8353,10 @@
       <c r="AG23" s="12">
         <v>1262</v>
       </c>
-      <c r="AH23" s="12">
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12">
         <v>4617</v>
       </c>
-      <c r="AI23" s="12"/>
       <c r="AL23" s="12">
         <v>3329</v>
       </c>
@@ -7699,16 +8365,16 @@
       </c>
     </row>
     <row r="24" spans="1:42">
-      <c r="A24" s="80">
+      <c r="A24" s="79">
         <v>23</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E24" s="10">
@@ -7728,27 +8394,27 @@
         <v>87.1</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>5.364069514672769</v>
       </c>
-      <c r="J24" s="63">
+      <c r="J24" s="62">
         <f t="shared" si="4"/>
         <v>80.08</v>
       </c>
-      <c r="K24" s="63">
+      <c r="K24" s="62">
         <f t="shared" si="5"/>
         <v>85.525000000000006</v>
       </c>
-      <c r="L24" s="63">
+      <c r="L24" s="62">
+        <f t="shared" si="6"/>
+        <v>87.1</v>
+      </c>
+      <c r="M24" s="62">
+        <f t="shared" si="7"/>
+        <v>89.825000000000003</v>
+      </c>
+      <c r="N24" s="64">
         <f t="shared" si="8"/>
-        <v>87.1</v>
-      </c>
-      <c r="M24" s="63">
-        <f t="shared" si="6"/>
-        <v>89.825000000000003</v>
-      </c>
-      <c r="N24" s="65">
-        <f t="shared" si="7"/>
         <v>95.57</v>
       </c>
       <c r="O24" s="5">
@@ -7767,10 +8433,10 @@
         <v>87.1</v>
       </c>
       <c r="T24" s="5">
+        <v>90.2</v>
+      </c>
+      <c r="U24" s="5">
         <v>85.6</v>
-      </c>
-      <c r="U24" s="5">
-        <v>90.2</v>
       </c>
       <c r="V24" s="5">
         <v>81.2</v>
@@ -7796,10 +8462,10 @@
       <c r="AG24" s="12">
         <v>10906</v>
       </c>
-      <c r="AH24" s="12">
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12">
         <v>42820</v>
       </c>
-      <c r="AI24" s="12"/>
       <c r="AL24" s="12">
         <v>25745</v>
       </c>
@@ -7817,7 +8483,7 @@
       <c r="C25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E25" s="10">
@@ -7837,27 +8503,27 @@
         <v>61.8</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>10.851657087213118</v>
       </c>
-      <c r="J25" s="63">
+      <c r="J25" s="62">
         <f t="shared" si="4"/>
         <v>48.994999999999997</v>
       </c>
-      <c r="K25" s="63">
+      <c r="K25" s="62">
         <f t="shared" si="5"/>
         <v>57.1</v>
       </c>
-      <c r="L25" s="63">
+      <c r="L25" s="62">
+        <f t="shared" si="6"/>
+        <v>61.8</v>
+      </c>
+      <c r="M25" s="62">
+        <f t="shared" si="7"/>
+        <v>65.8</v>
+      </c>
+      <c r="N25" s="64">
         <f t="shared" si="8"/>
-        <v>61.8</v>
-      </c>
-      <c r="M25" s="63">
-        <f t="shared" si="6"/>
-        <v>65.8</v>
-      </c>
-      <c r="N25" s="65">
-        <f t="shared" si="7"/>
         <v>81.66</v>
       </c>
       <c r="O25" s="5">
@@ -7876,10 +8542,10 @@
         <v>49.4</v>
       </c>
       <c r="T25" s="5">
+        <v>65.2</v>
+      </c>
+      <c r="U25" s="5">
         <v>56.5</v>
-      </c>
-      <c r="U25" s="5">
-        <v>65.2</v>
       </c>
       <c r="V25" s="5">
         <v>64.900000000000006</v>
@@ -7905,10 +8571,10 @@
       <c r="AG25" s="12">
         <v>793</v>
       </c>
-      <c r="AH25" s="12">
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12">
         <v>3493</v>
       </c>
-      <c r="AI25" s="12"/>
       <c r="AL25" s="12">
         <v>2567</v>
       </c>
@@ -7926,7 +8592,7 @@
       <c r="C26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E26" s="10">
@@ -7946,27 +8612,27 @@
         <v>76.900000000000006</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4.3924323032303576</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="62">
         <f t="shared" si="4"/>
         <v>73.35499999999999</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="62">
         <f t="shared" si="5"/>
         <v>74.95</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="62">
+        <f t="shared" si="6"/>
+        <v>76.900000000000006</v>
+      </c>
+      <c r="M26" s="62">
+        <f t="shared" si="7"/>
+        <v>82.025000000000006</v>
+      </c>
+      <c r="N26" s="64">
         <f t="shared" si="8"/>
-        <v>76.900000000000006</v>
-      </c>
-      <c r="M26" s="63">
-        <f t="shared" si="6"/>
-        <v>82.025000000000006</v>
-      </c>
-      <c r="N26" s="65">
-        <f t="shared" si="7"/>
         <v>84.77000000000001</v>
       </c>
       <c r="O26" s="5">
@@ -7985,10 +8651,10 @@
         <v>76.5</v>
       </c>
       <c r="T26" s="5">
+        <v>84.7</v>
+      </c>
+      <c r="U26" s="5">
         <v>76.3</v>
-      </c>
-      <c r="U26" s="5">
-        <v>84.7</v>
       </c>
       <c r="V26" s="5">
         <v>81.2</v>
@@ -8014,10 +8680,10 @@
       <c r="AG26" s="12">
         <v>9590</v>
       </c>
-      <c r="AH26" s="12">
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12">
         <v>38161</v>
       </c>
-      <c r="AI26" s="12"/>
       <c r="AL26" s="12">
         <v>21959</v>
       </c>
@@ -8026,16 +8692,16 @@
       </c>
     </row>
     <row r="27" spans="1:42">
-      <c r="A27" s="80">
+      <c r="A27" s="79">
         <v>26</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E27" s="10">
@@ -8055,27 +8721,27 @@
         <v>57.150000000000006</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>11.839580201200485</v>
       </c>
-      <c r="J27" s="63">
+      <c r="J27" s="62">
         <f t="shared" si="4"/>
         <v>41.589999999999996</v>
       </c>
-      <c r="K27" s="63">
+      <c r="K27" s="62">
         <f t="shared" si="5"/>
         <v>53.475000000000001</v>
       </c>
-      <c r="L27" s="63">
+      <c r="L27" s="62">
+        <f t="shared" si="6"/>
+        <v>57.150000000000006</v>
+      </c>
+      <c r="M27" s="62">
+        <f t="shared" si="7"/>
+        <v>65.625</v>
+      </c>
+      <c r="N27" s="64">
         <f t="shared" si="8"/>
-        <v>57.150000000000006</v>
-      </c>
-      <c r="M27" s="63">
-        <f t="shared" si="6"/>
-        <v>65.625</v>
-      </c>
-      <c r="N27" s="65">
-        <f t="shared" si="7"/>
         <v>73.644999999999996</v>
       </c>
       <c r="O27" s="5">
@@ -8094,10 +8760,10 @@
         <v>39.9</v>
       </c>
       <c r="T27" s="5">
+        <v>57.1</v>
+      </c>
+      <c r="U27" s="5">
         <v>42.5</v>
-      </c>
-      <c r="U27" s="5">
-        <v>57.1</v>
       </c>
       <c r="V27" s="5">
         <v>65.099999999999994</v>
@@ -8123,10 +8789,10 @@
       <c r="AG27" s="12">
         <v>641</v>
       </c>
-      <c r="AH27" s="12">
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12">
         <v>2626</v>
       </c>
-      <c r="AI27" s="12"/>
       <c r="AL27" s="12">
         <v>2389</v>
       </c>
@@ -8135,16 +8801,16 @@
       </c>
     </row>
     <row r="28" spans="1:42" s="2" customFormat="1">
-      <c r="A28" s="81">
+      <c r="A28" s="80">
         <v>27</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E28" s="39">
@@ -8164,27 +8830,27 @@
         <v>72.75</v>
       </c>
       <c r="I28" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>6.4858256271606693</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="63">
         <f t="shared" si="4"/>
         <v>63.504999999999995</v>
       </c>
-      <c r="K28" s="64">
+      <c r="K28" s="63">
         <f t="shared" si="5"/>
         <v>69.125</v>
       </c>
-      <c r="L28" s="64">
+      <c r="L28" s="63">
+        <f t="shared" si="6"/>
+        <v>72.75</v>
+      </c>
+      <c r="M28" s="63">
+        <f t="shared" si="7"/>
+        <v>77.3</v>
+      </c>
+      <c r="N28" s="65">
         <f t="shared" si="8"/>
-        <v>72.75</v>
-      </c>
-      <c r="M28" s="64">
-        <f t="shared" si="6"/>
-        <v>77.3</v>
-      </c>
-      <c r="N28" s="66">
-        <f t="shared" si="7"/>
         <v>82.515000000000001</v>
       </c>
       <c r="O28" s="37">
@@ -8203,10 +8869,10 @@
         <v>62.4</v>
       </c>
       <c r="T28" s="37">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="U28" s="37">
         <v>64.099999999999994</v>
-      </c>
-      <c r="U28" s="37">
-        <v>71.900000000000006</v>
       </c>
       <c r="V28" s="37">
         <v>81.5</v>
@@ -8232,7 +8898,7 @@
       <c r="AG28" s="2">
         <v>7813</v>
       </c>
-      <c r="AH28" s="2">
+      <c r="AI28" s="2">
         <v>32078</v>
       </c>
       <c r="AL28" s="2">
@@ -8253,7 +8919,7 @@
       <c r="C29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E29" s="10">
@@ -8273,27 +8939,27 @@
         <v>23.799999999999997</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>2.9222526310298078</v>
       </c>
-      <c r="J29" s="63">
+      <c r="J29" s="62">
         <f t="shared" si="4"/>
         <v>19.614999999999998</v>
       </c>
-      <c r="K29" s="63">
+      <c r="K29" s="62">
         <f t="shared" si="5"/>
         <v>21.774999999999999</v>
       </c>
-      <c r="L29" s="63">
+      <c r="L29" s="62">
+        <f t="shared" si="6"/>
+        <v>23.799999999999997</v>
+      </c>
+      <c r="M29" s="62">
+        <f t="shared" si="7"/>
+        <v>24.475000000000001</v>
+      </c>
+      <c r="N29" s="64">
         <f t="shared" si="8"/>
-        <v>23.799999999999997</v>
-      </c>
-      <c r="M29" s="63">
-        <f t="shared" si="6"/>
-        <v>24.475000000000001</v>
-      </c>
-      <c r="N29" s="65">
-        <f t="shared" si="7"/>
         <v>27.4</v>
       </c>
       <c r="O29" s="5">
@@ -8312,10 +8978,10 @@
         <v>23.2</v>
       </c>
       <c r="T29" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="U29" s="5">
         <v>25</v>
-      </c>
-      <c r="U29" s="5">
-        <v>21.7</v>
       </c>
       <c r="V29" s="5">
         <v>23.7</v>
@@ -8341,10 +9007,10 @@
       <c r="AG29" s="12">
         <v>367</v>
       </c>
-      <c r="AH29" s="12">
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12">
         <v>1476</v>
       </c>
-      <c r="AI29" s="12"/>
       <c r="AL29" s="12">
         <v>1296</v>
       </c>
@@ -8362,7 +9028,7 @@
       <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E30" s="39">
@@ -8382,27 +9048,27 @@
         <v>17.149999999999999</v>
       </c>
       <c r="I30" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>2.4575964314305327</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="63">
         <f t="shared" si="4"/>
         <v>13.555</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="63">
         <f t="shared" si="5"/>
         <v>15.55</v>
       </c>
-      <c r="L30" s="64">
+      <c r="L30" s="63">
+        <f t="shared" si="6"/>
+        <v>17.149999999999999</v>
+      </c>
+      <c r="M30" s="63">
+        <f t="shared" si="7"/>
+        <v>18.774999999999999</v>
+      </c>
+      <c r="N30" s="65">
         <f t="shared" si="8"/>
-        <v>17.149999999999999</v>
-      </c>
-      <c r="M30" s="64">
-        <f t="shared" si="6"/>
-        <v>18.774999999999999</v>
-      </c>
-      <c r="N30" s="66">
-        <f t="shared" si="7"/>
         <v>20.7</v>
       </c>
       <c r="O30" s="37">
@@ -8421,10 +9087,10 @@
         <v>18.100000000000001</v>
       </c>
       <c r="T30" s="37">
+        <v>15.2</v>
+      </c>
+      <c r="U30" s="37">
         <v>20.7</v>
-      </c>
-      <c r="U30" s="37">
-        <v>15.2</v>
       </c>
       <c r="V30" s="37">
         <v>15.4</v>
@@ -8450,7 +9116,7 @@
       <c r="AG30" s="2">
         <v>2255</v>
       </c>
-      <c r="AH30" s="2">
+      <c r="AI30" s="2">
         <v>10255</v>
       </c>
       <c r="AL30" s="2">
@@ -8471,7 +9137,7 @@
       <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E31" s="10">
@@ -8491,27 +9157,27 @@
         <v>25.25</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>2.9784943463818232</v>
       </c>
-      <c r="J31" s="63">
+      <c r="J31" s="62">
         <f t="shared" si="4"/>
         <v>22.89</v>
       </c>
-      <c r="K31" s="63">
+      <c r="K31" s="62">
         <f t="shared" si="5"/>
         <v>23.324999999999999</v>
       </c>
-      <c r="L31" s="63">
+      <c r="L31" s="62">
+        <f t="shared" si="6"/>
+        <v>25.25</v>
+      </c>
+      <c r="M31" s="62">
+        <f t="shared" si="7"/>
+        <v>28.224999999999998</v>
+      </c>
+      <c r="N31" s="64">
         <f t="shared" si="8"/>
-        <v>25.25</v>
-      </c>
-      <c r="M31" s="63">
-        <f t="shared" si="6"/>
-        <v>28.224999999999998</v>
-      </c>
-      <c r="N31" s="65">
-        <f t="shared" si="7"/>
         <v>30.475000000000001</v>
       </c>
       <c r="O31" s="5">
@@ -8530,10 +9196,10 @@
         <v>23.4</v>
       </c>
       <c r="T31" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="U31" s="5">
         <v>23.1</v>
-      </c>
-      <c r="U31" s="5">
-        <v>22.5</v>
       </c>
       <c r="V31" s="5">
         <v>25.1</v>
@@ -8559,10 +9225,10 @@
       <c r="AG31" s="12">
         <v>295</v>
       </c>
-      <c r="AH31" s="12">
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12">
         <v>1211</v>
       </c>
-      <c r="AI31" s="12"/>
       <c r="AL31" s="4">
         <v>862</v>
       </c>
@@ -8580,7 +9246,7 @@
       <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E32" s="10">
@@ -8600,27 +9266,27 @@
         <v>55.8</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>2.2217209446831867</v>
       </c>
-      <c r="J32" s="63">
+      <c r="J32" s="62">
         <f t="shared" si="4"/>
         <v>54.14</v>
       </c>
-      <c r="K32" s="63">
+      <c r="K32" s="62">
         <f t="shared" si="5"/>
         <v>55.05</v>
       </c>
-      <c r="L32" s="63">
+      <c r="L32" s="62">
+        <f t="shared" si="6"/>
+        <v>55.8</v>
+      </c>
+      <c r="M32" s="62">
+        <f t="shared" si="7"/>
+        <v>57.475000000000001</v>
+      </c>
+      <c r="N32" s="64">
         <f t="shared" si="8"/>
-        <v>55.8</v>
-      </c>
-      <c r="M32" s="63">
-        <f t="shared" si="6"/>
-        <v>57.475000000000001</v>
-      </c>
-      <c r="N32" s="65">
-        <f t="shared" si="7"/>
         <v>60.51</v>
       </c>
       <c r="O32" s="5">
@@ -8639,10 +9305,10 @@
         <v>57.4</v>
       </c>
       <c r="T32" s="5">
+        <v>54.7</v>
+      </c>
+      <c r="U32" s="5">
         <v>53.1</v>
-      </c>
-      <c r="U32" s="5">
-        <v>54.7</v>
       </c>
       <c r="V32" s="5">
         <v>55.2</v>
@@ -8668,10 +9334,10 @@
       <c r="AG32" s="12">
         <v>6143</v>
       </c>
-      <c r="AH32" s="12">
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12">
         <v>23280</v>
       </c>
-      <c r="AI32" s="12"/>
       <c r="AL32" s="12">
         <v>15037</v>
       </c>
@@ -8689,7 +9355,7 @@
       <c r="C33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E33" s="10">
@@ -8709,27 +9375,27 @@
         <v>81</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3.5848889203751582</v>
       </c>
-      <c r="J33" s="63">
+      <c r="J33" s="62">
         <f t="shared" si="4"/>
         <v>74.48</v>
       </c>
-      <c r="K33" s="63">
+      <c r="K33" s="62">
         <f t="shared" si="5"/>
         <v>77.625</v>
       </c>
-      <c r="L33" s="63">
+      <c r="L33" s="62">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="M33" s="62">
+        <f t="shared" si="7"/>
+        <v>81.875</v>
+      </c>
+      <c r="N33" s="64">
         <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="M33" s="63">
-        <f t="shared" si="6"/>
-        <v>81.875</v>
-      </c>
-      <c r="N33" s="65">
-        <f t="shared" si="7"/>
         <v>84.320000000000007</v>
       </c>
       <c r="O33" s="5">
@@ -8748,10 +9414,10 @@
         <v>82</v>
       </c>
       <c r="T33" s="5">
+        <v>83.8</v>
+      </c>
+      <c r="U33" s="5">
         <v>78.3</v>
-      </c>
-      <c r="U33" s="5">
-        <v>83.8</v>
       </c>
       <c r="V33" s="5">
         <v>81</v>
@@ -8777,10 +9443,10 @@
       <c r="AG33" s="12">
         <v>1012</v>
       </c>
-      <c r="AH33" s="12">
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12">
         <v>4230</v>
       </c>
-      <c r="AI33" s="12"/>
       <c r="AL33" s="12">
         <v>3027</v>
       </c>
@@ -8798,11 +9464,11 @@
       <c r="C34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="70" t="s">
+      <c r="D34" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E34" s="39">
-        <f t="shared" ref="E34:E54" si="10">MIN($O34:$AB34)</f>
+        <f t="shared" ref="E34:E54" si="9">MIN($O34:$AB34)</f>
         <v>69.7</v>
       </c>
       <c r="F34" s="39">
@@ -8810,35 +9476,35 @@
         <v>78.8</v>
       </c>
       <c r="G34" s="39">
-        <f t="shared" ref="G34:G54" si="11">AVERAGE($O34:$AB34)</f>
+        <f t="shared" ref="G34:G54" si="10">AVERAGE($O34:$AB34)</f>
         <v>73.871428571428581</v>
       </c>
       <c r="H34" s="39">
-        <f t="shared" ref="H34:H54" si="12">MEDIAN($O34:$AB34)</f>
+        <f t="shared" ref="H34:H54" si="11">MEDIAN($O34:$AB34)</f>
         <v>73.55</v>
       </c>
       <c r="I34" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I34:I54" si="12">STDEV($O34:$AB34)</f>
         <v>3.1027106192510403</v>
       </c>
-      <c r="J34" s="64">
-        <f t="shared" si="4"/>
+      <c r="J34" s="63">
+        <f t="shared" ref="J34:J54" si="13">_xlfn.PERCENTILE.INC($O34:$AB34,0.05)</f>
         <v>69.7</v>
       </c>
-      <c r="K34" s="64">
-        <f t="shared" si="5"/>
+      <c r="K34" s="63">
+        <f t="shared" ref="K34:K54" si="14">_xlfn.PERCENTILE.INC($O34:$AB34,0.25)</f>
         <v>71.5</v>
       </c>
-      <c r="L34" s="64">
-        <f t="shared" si="8"/>
+      <c r="L34" s="63">
+        <f t="shared" ref="L34:L54" si="15">_xlfn.PERCENTILE.INC($O34:$AB34,0.5)</f>
         <v>73.55</v>
       </c>
-      <c r="M34" s="64">
-        <f t="shared" si="6"/>
+      <c r="M34" s="63">
+        <f t="shared" ref="M34:M54" si="16">_xlfn.PERCENTILE.INC($O34:$AB34,0.75)</f>
         <v>76.524999999999991</v>
       </c>
-      <c r="N34" s="66">
-        <f t="shared" si="7"/>
+      <c r="N34" s="65">
+        <f t="shared" ref="N34:N54" si="17">_xlfn.PERCENTILE.INC($O34:$AB34,0.95)</f>
         <v>77.89</v>
       </c>
       <c r="O34" s="37">
@@ -8857,10 +9523,10 @@
         <v>76.599999999999994</v>
       </c>
       <c r="T34" s="37">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="U34" s="37">
         <v>77.400000000000006</v>
-      </c>
-      <c r="U34" s="37">
-        <v>74.099999999999994</v>
       </c>
       <c r="V34" s="37">
         <v>73</v>
@@ -8886,7 +9552,7 @@
       <c r="AG34" s="2">
         <v>8687</v>
       </c>
-      <c r="AH34" s="2">
+      <c r="AI34" s="2">
         <v>36006</v>
       </c>
       <c r="AL34" s="2">
@@ -8907,11 +9573,11 @@
       <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E35" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>26.7</v>
       </c>
       <c r="F35" s="10">
@@ -8919,35 +9585,35 @@
         <v>46.9</v>
       </c>
       <c r="G35" s="10">
+        <f t="shared" si="10"/>
+        <v>36.728571428571435</v>
+      </c>
+      <c r="H35" s="10">
         <f t="shared" si="11"/>
-        <v>36.728571428571435</v>
-      </c>
-      <c r="H35" s="10">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I35" s="10">
         <f t="shared" si="12"/>
+        <v>5.1963639020181418</v>
+      </c>
+      <c r="J35" s="62">
+        <f t="shared" si="13"/>
+        <v>29.560000000000002</v>
+      </c>
+      <c r="K35" s="62">
+        <f t="shared" si="14"/>
+        <v>33.875</v>
+      </c>
+      <c r="L35" s="62">
+        <f t="shared" si="15"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="I35" s="10">
-        <f t="shared" si="9"/>
-        <v>5.1963639020181418</v>
-      </c>
-      <c r="J35" s="63">
-        <f t="shared" si="4"/>
-        <v>29.560000000000002</v>
-      </c>
-      <c r="K35" s="63">
-        <f t="shared" si="5"/>
-        <v>33.875</v>
-      </c>
-      <c r="L35" s="63">
-        <f t="shared" si="8"/>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="M35" s="63">
-        <f t="shared" si="6"/>
+      <c r="M35" s="62">
+        <f t="shared" si="16"/>
         <v>39.475000000000001</v>
       </c>
-      <c r="N35" s="65">
-        <f t="shared" si="7"/>
+      <c r="N35" s="64">
+        <f t="shared" si="17"/>
         <v>44.755000000000003</v>
       </c>
       <c r="O35" s="5">
@@ -8966,10 +9632,10 @@
         <v>40.9</v>
       </c>
       <c r="T35" s="5">
+        <v>46.9</v>
+      </c>
+      <c r="U35" s="5">
         <v>35.6</v>
-      </c>
-      <c r="U35" s="5">
-        <v>46.9</v>
       </c>
       <c r="V35" s="5">
         <v>36.4</v>
@@ -8995,10 +9661,10 @@
       <c r="AG35" s="12">
         <v>573</v>
       </c>
-      <c r="AH35" s="12">
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12">
         <v>1885</v>
       </c>
-      <c r="AI35" s="12"/>
       <c r="AL35" s="12">
         <v>1058</v>
       </c>
@@ -9016,11 +9682,11 @@
       <c r="C36" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E36" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>11.5</v>
       </c>
       <c r="F36" s="10">
@@ -9028,35 +9694,35 @@
         <v>18.3</v>
       </c>
       <c r="G36" s="10">
+        <f t="shared" si="10"/>
+        <v>14.564285714285717</v>
+      </c>
+      <c r="H36" s="10">
         <f t="shared" si="11"/>
-        <v>14.564285714285717</v>
-      </c>
-      <c r="H36" s="10">
+        <v>14.55</v>
+      </c>
+      <c r="I36" s="10">
         <f t="shared" si="12"/>
+        <v>1.936931412493279</v>
+      </c>
+      <c r="J36" s="62">
+        <f t="shared" si="13"/>
+        <v>11.955</v>
+      </c>
+      <c r="K36" s="62">
+        <f t="shared" si="14"/>
+        <v>13.1</v>
+      </c>
+      <c r="L36" s="62">
+        <f t="shared" si="15"/>
         <v>14.55</v>
       </c>
-      <c r="I36" s="10">
-        <f t="shared" si="9"/>
-        <v>1.936931412493279</v>
-      </c>
-      <c r="J36" s="63">
-        <f t="shared" si="4"/>
-        <v>11.955</v>
-      </c>
-      <c r="K36" s="63">
-        <f t="shared" si="5"/>
-        <v>13.1</v>
-      </c>
-      <c r="L36" s="63">
-        <f t="shared" si="8"/>
-        <v>14.55</v>
-      </c>
-      <c r="M36" s="63">
-        <f t="shared" si="6"/>
+      <c r="M36" s="62">
+        <f t="shared" si="16"/>
         <v>15.875</v>
       </c>
-      <c r="N36" s="65">
-        <f t="shared" si="7"/>
+      <c r="N36" s="64">
+        <f t="shared" si="17"/>
         <v>17.39</v>
       </c>
       <c r="O36" s="5">
@@ -9075,10 +9741,10 @@
         <v>14.3</v>
       </c>
       <c r="T36" s="5">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="U36" s="5">
         <v>16.2</v>
-      </c>
-      <c r="U36" s="5">
-        <v>16.600000000000001</v>
       </c>
       <c r="V36" s="5">
         <v>14.9</v>
@@ -9104,10 +9770,10 @@
       <c r="AG36" s="12">
         <v>1687</v>
       </c>
-      <c r="AH36" s="12">
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12">
         <v>7325</v>
       </c>
-      <c r="AI36" s="12"/>
       <c r="AL36" s="12">
         <v>3249</v>
       </c>
@@ -9125,11 +9791,11 @@
       <c r="C37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>24.4</v>
       </c>
       <c r="F37" s="10">
@@ -9137,35 +9803,35 @@
         <v>34.299999999999997</v>
       </c>
       <c r="G37" s="10">
+        <f t="shared" si="10"/>
+        <v>28.957142857142859</v>
+      </c>
+      <c r="H37" s="10">
         <f t="shared" si="11"/>
-        <v>28.957142857142859</v>
-      </c>
-      <c r="H37" s="10">
+        <v>29.4</v>
+      </c>
+      <c r="I37" s="10">
         <f t="shared" si="12"/>
+        <v>3.0903607670188946</v>
+      </c>
+      <c r="J37" s="62">
+        <f t="shared" si="13"/>
+        <v>25.114999999999998</v>
+      </c>
+      <c r="K37" s="62">
+        <f t="shared" si="14"/>
+        <v>25.824999999999999</v>
+      </c>
+      <c r="L37" s="62">
+        <f t="shared" si="15"/>
         <v>29.4</v>
       </c>
-      <c r="I37" s="10">
-        <f t="shared" si="9"/>
-        <v>3.0903607670188946</v>
-      </c>
-      <c r="J37" s="63">
-        <f t="shared" si="4"/>
-        <v>25.114999999999998</v>
-      </c>
-      <c r="K37" s="63">
-        <f t="shared" si="5"/>
-        <v>25.824999999999999</v>
-      </c>
-      <c r="L37" s="63">
-        <f t="shared" si="8"/>
-        <v>29.4</v>
-      </c>
-      <c r="M37" s="63">
-        <f t="shared" si="6"/>
+      <c r="M37" s="62">
+        <f t="shared" si="16"/>
         <v>30.824999999999999</v>
       </c>
-      <c r="N37" s="65">
-        <f t="shared" si="7"/>
+      <c r="N37" s="64">
+        <f t="shared" si="17"/>
         <v>33.585000000000001</v>
       </c>
       <c r="O37" s="5">
@@ -9184,10 +9850,10 @@
         <v>29.3</v>
       </c>
       <c r="T37" s="5">
+        <v>24.4</v>
+      </c>
+      <c r="U37" s="5">
         <v>29.5</v>
-      </c>
-      <c r="U37" s="5">
-        <v>24.4</v>
       </c>
       <c r="V37" s="5">
         <v>25.5</v>
@@ -9213,10 +9879,10 @@
       <c r="AG37" s="12">
         <v>366</v>
       </c>
-      <c r="AH37" s="12">
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12">
         <v>1258</v>
       </c>
-      <c r="AI37" s="12"/>
       <c r="AL37" s="12">
         <v>1020</v>
       </c>
@@ -9234,11 +9900,11 @@
       <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E38" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17.399999999999999</v>
       </c>
       <c r="F38" s="39">
@@ -9246,35 +9912,35 @@
         <v>24.8</v>
       </c>
       <c r="G38" s="39">
+        <f t="shared" si="10"/>
+        <v>20.37142857142857</v>
+      </c>
+      <c r="H38" s="39">
         <f t="shared" si="11"/>
-        <v>20.37142857142857</v>
-      </c>
-      <c r="H38" s="39">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="I38" s="39">
         <f t="shared" si="12"/>
+        <v>2.1695191141847872</v>
+      </c>
+      <c r="J38" s="63">
+        <f t="shared" si="13"/>
+        <v>18.049999999999997</v>
+      </c>
+      <c r="K38" s="63">
+        <f t="shared" si="14"/>
+        <v>18.850000000000001</v>
+      </c>
+      <c r="L38" s="63">
+        <f t="shared" si="15"/>
         <v>19.850000000000001</v>
       </c>
-      <c r="I38" s="39">
-        <f t="shared" si="9"/>
-        <v>2.1695191141847872</v>
-      </c>
-      <c r="J38" s="64">
-        <f t="shared" si="4"/>
-        <v>18.049999999999997</v>
-      </c>
-      <c r="K38" s="64">
-        <f t="shared" si="5"/>
-        <v>18.850000000000001</v>
-      </c>
-      <c r="L38" s="64">
-        <f t="shared" si="8"/>
-        <v>19.850000000000001</v>
-      </c>
-      <c r="M38" s="64">
-        <f t="shared" si="6"/>
+      <c r="M38" s="63">
+        <f t="shared" si="16"/>
         <v>21.95</v>
       </c>
-      <c r="N38" s="66">
-        <f t="shared" si="7"/>
+      <c r="N38" s="65">
+        <f t="shared" si="17"/>
         <v>23.695</v>
       </c>
       <c r="O38" s="37">
@@ -9293,10 +9959,10 @@
         <v>18.399999999999999</v>
       </c>
       <c r="T38" s="37">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="U38" s="37">
         <v>18.8</v>
-      </c>
-      <c r="U38" s="37">
-        <v>17.399999999999999</v>
       </c>
       <c r="V38" s="37">
         <v>20.6</v>
@@ -9322,7 +9988,7 @@
       <c r="AG38" s="2">
         <v>2126</v>
       </c>
-      <c r="AH38" s="2">
+      <c r="AI38" s="2">
         <v>8269</v>
       </c>
       <c r="AL38" s="2">
@@ -9343,11 +10009,11 @@
       <c r="C39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F39" s="10">
@@ -9355,35 +10021,35 @@
         <v>1.2</v>
       </c>
       <c r="G39" s="10">
+        <f t="shared" si="10"/>
+        <v>0.43571428571428583</v>
+      </c>
+      <c r="H39" s="10">
         <f t="shared" si="11"/>
-        <v>0.43571428571428583</v>
-      </c>
-      <c r="H39" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="I39" s="10">
         <f t="shared" si="12"/>
+        <v>0.33191088437234939</v>
+      </c>
+      <c r="J39" s="62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="62">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="L39" s="62">
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
-      <c r="I39" s="10">
-        <f t="shared" si="9"/>
-        <v>0.33191088437234939</v>
-      </c>
-      <c r="J39" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="63">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="L39" s="63">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
-      <c r="M39" s="63">
-        <f t="shared" si="6"/>
+      <c r="M39" s="62">
+        <f t="shared" si="16"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="N39" s="65">
-        <f t="shared" si="7"/>
+      <c r="N39" s="64">
+        <f t="shared" si="17"/>
         <v>0.87499999999999978</v>
       </c>
       <c r="O39" s="5">
@@ -9402,10 +10068,10 @@
         <v>0.4</v>
       </c>
       <c r="T39" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U39" s="5">
         <v>0.5</v>
-      </c>
-      <c r="U39" s="5">
-        <v>0.2</v>
       </c>
       <c r="V39" s="5">
         <v>0.5</v>
@@ -9431,10 +10097,10 @@
       <c r="AG39" s="12">
         <v>5</v>
       </c>
-      <c r="AH39" s="12">
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12">
         <v>21</v>
       </c>
-      <c r="AI39" s="12"/>
       <c r="AL39" s="12">
         <v>14</v>
       </c>
@@ -9452,11 +10118,11 @@
       <c r="C40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E40" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="F40" s="10">
@@ -9464,35 +10130,35 @@
         <v>0.9</v>
       </c>
       <c r="G40" s="10">
+        <f t="shared" si="10"/>
+        <v>0.31428571428571422</v>
+      </c>
+      <c r="H40" s="10">
         <f t="shared" si="11"/>
-        <v>0.31428571428571422</v>
-      </c>
-      <c r="H40" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="I40" s="10">
         <f t="shared" si="12"/>
+        <v>0.19158104473902615</v>
+      </c>
+      <c r="J40" s="62">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="K40" s="62">
+        <f t="shared" si="14"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L40" s="62">
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
-      <c r="I40" s="10">
-        <f t="shared" si="9"/>
-        <v>0.19158104473902615</v>
-      </c>
-      <c r="J40" s="63">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="K40" s="63">
-        <f t="shared" si="5"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="L40" s="63">
-        <f t="shared" si="8"/>
+      <c r="M40" s="62">
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
-      <c r="M40" s="63">
-        <f t="shared" si="6"/>
-        <v>0.3</v>
-      </c>
-      <c r="N40" s="65">
-        <f t="shared" si="7"/>
+      <c r="N40" s="64">
+        <f t="shared" si="17"/>
         <v>0.57499999999999984</v>
       </c>
       <c r="O40" s="5">
@@ -9511,10 +10177,10 @@
         <v>0.3</v>
       </c>
       <c r="T40" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U40" s="5">
         <v>0.4</v>
-      </c>
-      <c r="U40" s="5">
-        <v>0.2</v>
       </c>
       <c r="V40" s="5">
         <v>0.3</v>
@@ -9540,10 +10206,10 @@
       <c r="AG40" s="12">
         <v>33</v>
       </c>
-      <c r="AH40" s="12">
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12">
         <v>157</v>
       </c>
-      <c r="AI40" s="12"/>
       <c r="AL40" s="12">
         <v>72</v>
       </c>
@@ -9561,11 +10227,11 @@
       <c r="C41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="69" t="s">
+      <c r="D41" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E41" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F41" s="10">
@@ -9573,35 +10239,35 @@
         <v>1.7</v>
       </c>
       <c r="G41" s="10">
+        <f t="shared" si="10"/>
+        <v>1.0285714285714285</v>
+      </c>
+      <c r="H41" s="10">
         <f t="shared" si="11"/>
-        <v>1.0285714285714285</v>
-      </c>
-      <c r="H41" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="I41" s="10">
         <f t="shared" si="12"/>
+        <v>0.50448537590845499</v>
+      </c>
+      <c r="J41" s="62">
+        <f t="shared" si="13"/>
+        <v>0.25999999999999995</v>
+      </c>
+      <c r="K41" s="62">
+        <f t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+      <c r="L41" s="62">
+        <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
-      <c r="I41" s="10">
-        <f t="shared" si="9"/>
-        <v>0.50448537590845499</v>
-      </c>
-      <c r="J41" s="63">
-        <f t="shared" si="4"/>
-        <v>0.25999999999999995</v>
-      </c>
-      <c r="K41" s="63">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="L41" s="63">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="M41" s="63">
-        <f t="shared" si="6"/>
+      <c r="M41" s="62">
+        <f t="shared" si="16"/>
         <v>1.4750000000000001</v>
       </c>
-      <c r="N41" s="65">
-        <f t="shared" si="7"/>
+      <c r="N41" s="64">
+        <f t="shared" si="17"/>
         <v>1.7</v>
       </c>
       <c r="O41" s="5">
@@ -9620,10 +10286,10 @@
         <v>0.9</v>
       </c>
       <c r="T41" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="U41" s="5">
         <v>0.9</v>
-      </c>
-      <c r="U41" s="5">
-        <v>1.4</v>
       </c>
       <c r="V41" s="5">
         <v>1.1000000000000001</v>
@@ -9649,10 +10315,10 @@
       <c r="AG41" s="12">
         <v>14</v>
       </c>
-      <c r="AH41" s="12">
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12">
         <v>54</v>
       </c>
-      <c r="AI41" s="12"/>
       <c r="AL41" s="12">
         <v>36</v>
       </c>
@@ -9670,11 +10336,11 @@
       <c r="C42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E42" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="F42" s="10">
@@ -9682,35 +10348,35 @@
         <v>0.6</v>
       </c>
       <c r="G42" s="10">
+        <f t="shared" si="10"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="H42" s="10">
         <f t="shared" si="11"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="H42" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="I42" s="10">
         <f t="shared" si="12"/>
+        <v>0.14675987714106875</v>
+      </c>
+      <c r="J42" s="62">
+        <f t="shared" si="13"/>
+        <v>0.16499999999999998</v>
+      </c>
+      <c r="K42" s="62">
+        <f t="shared" si="14"/>
+        <v>0.3</v>
+      </c>
+      <c r="L42" s="62">
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
-      <c r="I42" s="10">
-        <f t="shared" si="9"/>
-        <v>0.14675987714106875</v>
-      </c>
-      <c r="J42" s="63">
-        <f t="shared" si="4"/>
-        <v>0.16499999999999998</v>
-      </c>
-      <c r="K42" s="63">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="L42" s="63">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
-      <c r="M42" s="63">
-        <f t="shared" si="6"/>
+      <c r="M42" s="62">
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="N42" s="65">
-        <f t="shared" si="7"/>
+      <c r="N42" s="64">
+        <f t="shared" si="17"/>
         <v>0.6</v>
       </c>
       <c r="O42" s="5">
@@ -9758,10 +10424,10 @@
       <c r="AG42" s="12">
         <v>64</v>
       </c>
-      <c r="AH42" s="12">
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12">
         <v>227</v>
       </c>
-      <c r="AI42" s="12"/>
       <c r="AL42" s="12">
         <v>171</v>
       </c>
@@ -9779,11 +10445,11 @@
       <c r="C43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E43" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>48.4</v>
       </c>
       <c r="F43" s="10">
@@ -9791,35 +10457,35 @@
         <v>73.2</v>
       </c>
       <c r="G43" s="10">
+        <f t="shared" si="10"/>
+        <v>57.942857142857136</v>
+      </c>
+      <c r="H43" s="10">
         <f t="shared" si="11"/>
-        <v>57.942857142857136</v>
-      </c>
-      <c r="H43" s="10">
+        <v>56.650000000000006</v>
+      </c>
+      <c r="I43" s="10">
         <f t="shared" si="12"/>
+        <v>6.9131662884577416</v>
+      </c>
+      <c r="J43" s="62">
+        <f t="shared" si="13"/>
+        <v>49.895000000000003</v>
+      </c>
+      <c r="K43" s="62">
+        <f t="shared" si="14"/>
+        <v>53.5</v>
+      </c>
+      <c r="L43" s="62">
+        <f t="shared" si="15"/>
         <v>56.650000000000006</v>
       </c>
-      <c r="I43" s="10">
-        <f t="shared" si="9"/>
-        <v>6.9131662884577416</v>
-      </c>
-      <c r="J43" s="63">
-        <f t="shared" si="4"/>
-        <v>49.895000000000003</v>
-      </c>
-      <c r="K43" s="63">
-        <f t="shared" si="5"/>
-        <v>53.5</v>
-      </c>
-      <c r="L43" s="63">
-        <f t="shared" si="8"/>
-        <v>56.650000000000006</v>
-      </c>
-      <c r="M43" s="63">
-        <f t="shared" si="6"/>
+      <c r="M43" s="62">
+        <f t="shared" si="16"/>
         <v>61.224999999999994</v>
       </c>
-      <c r="N43" s="65">
-        <f t="shared" si="7"/>
+      <c r="N43" s="64">
+        <f t="shared" si="17"/>
         <v>70.73</v>
       </c>
       <c r="O43" s="5">
@@ -9838,10 +10504,10 @@
         <v>62.5</v>
       </c>
       <c r="T43" s="5">
+        <v>48.4</v>
+      </c>
+      <c r="U43" s="5">
         <v>57.3</v>
-      </c>
-      <c r="U43" s="5">
-        <v>48.4</v>
       </c>
       <c r="V43" s="5">
         <v>52.9</v>
@@ -9867,10 +10533,10 @@
       <c r="AG43" s="12">
         <v>895</v>
       </c>
-      <c r="AH43" s="12">
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12">
         <v>3055</v>
       </c>
-      <c r="AI43" s="12"/>
       <c r="AL43" s="12">
         <v>1936</v>
       </c>
@@ -9888,11 +10554,11 @@
       <c r="C44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E44" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>21.4</v>
       </c>
       <c r="F44" s="39">
@@ -9900,35 +10566,35 @@
         <v>46.7</v>
       </c>
       <c r="G44" s="39">
+        <f t="shared" si="10"/>
+        <v>28.085714285714289</v>
+      </c>
+      <c r="H44" s="39">
         <f t="shared" si="11"/>
-        <v>28.085714285714289</v>
-      </c>
-      <c r="H44" s="39">
+        <v>26.05</v>
+      </c>
+      <c r="I44" s="39">
         <f t="shared" si="12"/>
+        <v>7.0148038124720609</v>
+      </c>
+      <c r="J44" s="63">
+        <f t="shared" si="13"/>
+        <v>21.984999999999999</v>
+      </c>
+      <c r="K44" s="63">
+        <f t="shared" si="14"/>
+        <v>23.25</v>
+      </c>
+      <c r="L44" s="63">
+        <f t="shared" si="15"/>
         <v>26.05</v>
       </c>
-      <c r="I44" s="39">
-        <f t="shared" si="9"/>
-        <v>7.0148038124720609</v>
-      </c>
-      <c r="J44" s="64">
-        <f t="shared" si="4"/>
-        <v>21.984999999999999</v>
-      </c>
-      <c r="K44" s="64">
-        <f t="shared" si="5"/>
-        <v>23.25</v>
-      </c>
-      <c r="L44" s="64">
-        <f t="shared" si="8"/>
-        <v>26.05</v>
-      </c>
-      <c r="M44" s="64">
-        <f t="shared" si="6"/>
+      <c r="M44" s="63">
+        <f t="shared" si="16"/>
         <v>30.575000000000003</v>
       </c>
-      <c r="N44" s="66">
-        <f t="shared" si="7"/>
+      <c r="N44" s="65">
+        <f t="shared" si="17"/>
         <v>40.524999999999999</v>
       </c>
       <c r="O44" s="37">
@@ -9947,10 +10613,10 @@
         <v>32.1</v>
       </c>
       <c r="T44" s="37">
+        <v>21.4</v>
+      </c>
+      <c r="U44" s="37">
         <v>26</v>
-      </c>
-      <c r="U44" s="37">
-        <v>21.4</v>
       </c>
       <c r="V44" s="37">
         <v>23.8</v>
@@ -9976,7 +10642,7 @@
       <c r="AG44" s="2">
         <v>3793</v>
       </c>
-      <c r="AH44" s="2">
+      <c r="AI44" s="2">
         <v>12147</v>
       </c>
       <c r="AL44" s="2">
@@ -9997,11 +10663,11 @@
       <c r="C45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E45" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.2</v>
       </c>
       <c r="F45" s="10">
@@ -10009,35 +10675,35 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G45" s="10">
+        <f t="shared" si="10"/>
+        <v>3.785714285714286</v>
+      </c>
+      <c r="H45" s="10">
         <f t="shared" si="11"/>
-        <v>3.785714285714286</v>
-      </c>
-      <c r="H45" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="I45" s="10">
         <f t="shared" si="12"/>
+        <v>0.53328754382190735</v>
+      </c>
+      <c r="J45" s="62">
+        <f t="shared" si="13"/>
+        <v>3.2</v>
+      </c>
+      <c r="K45" s="62">
+        <f t="shared" si="14"/>
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="L45" s="62">
+        <f t="shared" si="15"/>
         <v>3.7</v>
       </c>
-      <c r="I45" s="10">
-        <f t="shared" si="9"/>
-        <v>0.53328754382190735</v>
-      </c>
-      <c r="J45" s="63">
-        <f t="shared" si="4"/>
-        <v>3.2</v>
-      </c>
-      <c r="K45" s="63">
-        <f t="shared" si="5"/>
-        <v>3.3249999999999997</v>
-      </c>
-      <c r="L45" s="63">
-        <f t="shared" si="8"/>
-        <v>3.7</v>
-      </c>
-      <c r="M45" s="63">
-        <f t="shared" si="6"/>
+      <c r="M45" s="62">
+        <f t="shared" si="16"/>
         <v>4.2</v>
       </c>
-      <c r="N45" s="65">
-        <f t="shared" si="7"/>
+      <c r="N45" s="64">
+        <f t="shared" si="17"/>
         <v>4.5750000000000002</v>
       </c>
       <c r="O45" s="5">
@@ -10056,10 +10722,10 @@
         <v>3.4</v>
       </c>
       <c r="T45" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="U45" s="5">
         <v>3.7</v>
-      </c>
-      <c r="U45" s="5">
-        <v>3.2</v>
       </c>
       <c r="V45" s="5">
         <v>4.2</v>
@@ -10085,10 +10751,10 @@
       <c r="AG45" s="12">
         <v>55</v>
       </c>
-      <c r="AH45" s="12">
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12">
         <v>226</v>
       </c>
-      <c r="AI45" s="12"/>
       <c r="AL45" s="12">
         <v>132</v>
       </c>
@@ -10106,11 +10772,11 @@
       <c r="C46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E46" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
       <c r="F46" s="10">
@@ -10118,35 +10784,35 @@
         <v>11.2</v>
       </c>
       <c r="G46" s="10">
+        <f t="shared" si="10"/>
+        <v>9.7428571428571438</v>
+      </c>
+      <c r="H46" s="10">
         <f t="shared" si="11"/>
-        <v>9.7428571428571438</v>
-      </c>
-      <c r="H46" s="10">
+        <v>10</v>
+      </c>
+      <c r="I46" s="10">
         <f t="shared" si="12"/>
+        <v>1.1174932701323876</v>
+      </c>
+      <c r="J46" s="62">
+        <f t="shared" si="13"/>
+        <v>7.8649999999999993</v>
+      </c>
+      <c r="K46" s="62">
+        <f t="shared" si="14"/>
+        <v>9.7249999999999996</v>
+      </c>
+      <c r="L46" s="62">
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="I46" s="10">
-        <f t="shared" si="9"/>
-        <v>1.1174932701323876</v>
-      </c>
-      <c r="J46" s="63">
-        <f t="shared" si="4"/>
-        <v>7.8649999999999993</v>
-      </c>
-      <c r="K46" s="63">
-        <f t="shared" si="5"/>
-        <v>9.7249999999999996</v>
-      </c>
-      <c r="L46" s="63">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="M46" s="63">
-        <f t="shared" si="6"/>
+      <c r="M46" s="62">
+        <f t="shared" si="16"/>
         <v>10.35</v>
       </c>
-      <c r="N46" s="65">
-        <f t="shared" si="7"/>
+      <c r="N46" s="64">
+        <f t="shared" si="17"/>
         <v>10.68</v>
       </c>
       <c r="O46" s="5">
@@ -10165,10 +10831,10 @@
         <v>10</v>
       </c>
       <c r="T46" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U46" s="5">
         <v>10.4</v>
-      </c>
-      <c r="U46" s="5">
-        <v>9.8000000000000007</v>
       </c>
       <c r="V46" s="5">
         <v>10.199999999999999</v>
@@ -10194,10 +10860,10 @@
       <c r="AG46" s="12">
         <v>1259</v>
       </c>
-      <c r="AH46" s="12">
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12">
         <v>5223</v>
       </c>
-      <c r="AI46" s="12"/>
       <c r="AL46" s="12">
         <v>3021</v>
       </c>
@@ -10215,11 +10881,11 @@
       <c r="C47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="69" t="s">
+      <c r="D47" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E47" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="F47" s="10">
@@ -10227,35 +10893,35 @@
         <v>3.6</v>
       </c>
       <c r="G47" s="10">
+        <f t="shared" si="10"/>
+        <v>2.342857142857143</v>
+      </c>
+      <c r="H47" s="10">
         <f t="shared" si="11"/>
-        <v>2.3428571428571425</v>
-      </c>
-      <c r="H47" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="I47" s="10">
         <f t="shared" si="12"/>
+        <v>0.72293662421913651</v>
+      </c>
+      <c r="J47" s="62">
+        <f t="shared" si="13"/>
+        <v>0.99500000000000011</v>
+      </c>
+      <c r="K47" s="62">
+        <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
-      <c r="I47" s="10">
-        <f t="shared" si="9"/>
-        <v>0.72293662421913796</v>
-      </c>
-      <c r="J47" s="63">
-        <f t="shared" si="4"/>
-        <v>0.99500000000000011</v>
-      </c>
-      <c r="K47" s="63">
-        <f t="shared" si="5"/>
+      <c r="L47" s="62">
+        <f t="shared" si="15"/>
         <v>2.4</v>
       </c>
-      <c r="L47" s="63">
-        <f t="shared" si="8"/>
-        <v>2.4</v>
-      </c>
-      <c r="M47" s="63">
-        <f t="shared" si="6"/>
+      <c r="M47" s="62">
+        <f t="shared" si="16"/>
         <v>2.6750000000000003</v>
       </c>
-      <c r="N47" s="65">
-        <f t="shared" si="7"/>
+      <c r="N47" s="64">
+        <f t="shared" si="17"/>
         <v>3.21</v>
       </c>
       <c r="O47" s="5">
@@ -10274,10 +10940,10 @@
         <v>2.4</v>
       </c>
       <c r="T47" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="U47" s="5">
         <v>2.6</v>
-      </c>
-      <c r="U47" s="5">
-        <v>2.4</v>
       </c>
       <c r="V47" s="5">
         <v>2.8</v>
@@ -10303,10 +10969,10 @@
       <c r="AG47" s="12">
         <v>38</v>
       </c>
-      <c r="AH47" s="12">
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12">
         <v>160</v>
       </c>
-      <c r="AI47" s="12"/>
       <c r="AL47" s="12">
         <v>103</v>
       </c>
@@ -10324,11 +10990,11 @@
       <c r="C48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E48" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F48" s="10">
@@ -10336,35 +11002,35 @@
         <v>7.7</v>
       </c>
       <c r="G48" s="10">
+        <f t="shared" si="10"/>
+        <v>6.6071428571428585</v>
+      </c>
+      <c r="H48" s="10">
         <f t="shared" si="11"/>
-        <v>6.6071428571428585</v>
-      </c>
-      <c r="H48" s="10">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="I48" s="10">
         <f t="shared" si="12"/>
+        <v>1.0064899294190521</v>
+      </c>
+      <c r="J48" s="62">
+        <f t="shared" si="13"/>
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="K48" s="62">
+        <f t="shared" si="14"/>
+        <v>6.125</v>
+      </c>
+      <c r="L48" s="62">
+        <f t="shared" si="15"/>
         <v>6.8000000000000007</v>
       </c>
-      <c r="I48" s="10">
-        <f t="shared" si="9"/>
-        <v>1.0064899294190521</v>
-      </c>
-      <c r="J48" s="63">
-        <f t="shared" si="4"/>
-        <v>4.9749999999999996</v>
-      </c>
-      <c r="K48" s="63">
-        <f t="shared" si="5"/>
-        <v>6.125</v>
-      </c>
-      <c r="L48" s="63">
-        <f t="shared" si="8"/>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="M48" s="63">
-        <f t="shared" si="6"/>
+      <c r="M48" s="62">
+        <f t="shared" si="16"/>
         <v>7.4</v>
       </c>
-      <c r="N48" s="65">
-        <f t="shared" si="7"/>
+      <c r="N48" s="64">
+        <f t="shared" si="17"/>
         <v>7.6349999999999998</v>
       </c>
       <c r="O48" s="5">
@@ -10383,10 +11049,10 @@
         <v>6.6</v>
       </c>
       <c r="T48" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="U48" s="5">
         <v>7.7</v>
-      </c>
-      <c r="U48" s="5">
-        <v>7.5</v>
       </c>
       <c r="V48" s="5">
         <v>6.9</v>
@@ -10412,10 +11078,10 @@
       <c r="AG48" s="12">
         <v>827</v>
       </c>
-      <c r="AH48" s="12">
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12">
         <v>3857</v>
       </c>
-      <c r="AI48" s="12"/>
       <c r="AL48" s="12">
         <v>2207</v>
       </c>
@@ -10433,11 +11099,11 @@
       <c r="C49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="69" t="s">
+      <c r="D49" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E49" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="F49" s="10">
@@ -10445,35 +11111,35 @@
         <v>2.5</v>
       </c>
       <c r="G49" s="10">
+        <f t="shared" si="10"/>
+        <v>1.9642857142857149</v>
+      </c>
+      <c r="H49" s="10">
         <f t="shared" si="11"/>
-        <v>1.9642857142857149</v>
-      </c>
-      <c r="H49" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="I49" s="10">
         <f t="shared" si="12"/>
+        <v>0.53292681393507235</v>
+      </c>
+      <c r="J49" s="62">
+        <f t="shared" si="13"/>
+        <v>0.99500000000000011</v>
+      </c>
+      <c r="K49" s="62">
+        <f t="shared" si="14"/>
+        <v>1.675</v>
+      </c>
+      <c r="L49" s="62">
+        <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
-      <c r="I49" s="10">
-        <f t="shared" si="9"/>
-        <v>0.53292681393507235</v>
-      </c>
-      <c r="J49" s="63">
-        <f t="shared" si="4"/>
-        <v>0.99500000000000011</v>
-      </c>
-      <c r="K49" s="63">
-        <f t="shared" si="5"/>
-        <v>1.675</v>
-      </c>
-      <c r="L49" s="63">
-        <f t="shared" si="8"/>
-        <v>2.1</v>
-      </c>
-      <c r="M49" s="63">
-        <f t="shared" si="6"/>
+      <c r="M49" s="62">
+        <f t="shared" si="16"/>
         <v>2.375</v>
       </c>
-      <c r="N49" s="65">
-        <f t="shared" si="7"/>
+      <c r="N49" s="64">
+        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
       <c r="O49" s="5">
@@ -10492,10 +11158,10 @@
         <v>2</v>
       </c>
       <c r="T49" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="U49" s="5">
         <v>1.9</v>
-      </c>
-      <c r="U49" s="5">
-        <v>1.5</v>
       </c>
       <c r="V49" s="5">
         <v>2.4</v>
@@ -10521,10 +11187,10 @@
       <c r="AG49" s="12">
         <v>32</v>
       </c>
-      <c r="AH49" s="12">
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12">
         <v>117</v>
       </c>
-      <c r="AI49" s="12"/>
       <c r="AL49" s="12">
         <v>94</v>
       </c>
@@ -10542,11 +11208,11 @@
       <c r="C50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="69" t="s">
+      <c r="D50" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E50" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
       <c r="F50" s="10">
@@ -10554,35 +11220,35 @@
         <v>6.1</v>
       </c>
       <c r="G50" s="10">
+        <f t="shared" si="10"/>
+        <v>4.9357142857142859</v>
+      </c>
+      <c r="H50" s="10">
         <f t="shared" si="11"/>
-        <v>4.9357142857142859</v>
-      </c>
-      <c r="H50" s="10">
+        <v>5</v>
+      </c>
+      <c r="I50" s="10">
         <f t="shared" si="12"/>
+        <v>0.81675449927619359</v>
+      </c>
+      <c r="J50" s="62">
+        <f t="shared" si="13"/>
+        <v>3.665</v>
+      </c>
+      <c r="K50" s="62">
+        <f t="shared" si="14"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L50" s="62">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="I50" s="10">
-        <f t="shared" si="9"/>
-        <v>0.81675449927619359</v>
-      </c>
-      <c r="J50" s="63">
-        <f t="shared" si="4"/>
-        <v>3.665</v>
-      </c>
-      <c r="K50" s="63">
-        <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L50" s="63">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="M50" s="63">
-        <f t="shared" si="6"/>
+      <c r="M50" s="62">
+        <f t="shared" si="16"/>
         <v>5.55</v>
       </c>
-      <c r="N50" s="65">
-        <f t="shared" si="7"/>
+      <c r="N50" s="64">
+        <f t="shared" si="17"/>
         <v>6.0350000000000001</v>
       </c>
       <c r="O50" s="5">
@@ -10601,10 +11267,10 @@
         <v>5</v>
       </c>
       <c r="T50" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U50" s="5">
         <v>5.6</v>
-      </c>
-      <c r="U50" s="5">
-        <v>4.4000000000000004</v>
       </c>
       <c r="V50" s="5">
         <v>5</v>
@@ -10630,10 +11296,10 @@
       <c r="AG50" s="12">
         <v>631</v>
       </c>
-      <c r="AH50" s="12">
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12">
         <v>2793</v>
       </c>
-      <c r="AI50" s="12"/>
       <c r="AL50" s="12">
         <v>1775</v>
       </c>
@@ -10651,11 +11317,11 @@
       <c r="C51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="69" t="s">
+      <c r="D51" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E51" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="F51" s="10">
@@ -10663,35 +11329,35 @@
         <v>12</v>
       </c>
       <c r="G51" s="10">
+        <f t="shared" si="10"/>
+        <v>5.4999999999999991</v>
+      </c>
+      <c r="H51" s="10">
         <f t="shared" si="11"/>
-        <v>5.4999999999999991</v>
-      </c>
-      <c r="H51" s="10">
+        <v>5.75</v>
+      </c>
+      <c r="I51" s="10">
         <f t="shared" si="12"/>
+        <v>3.3110537481407532</v>
+      </c>
+      <c r="J51" s="62">
+        <f t="shared" si="13"/>
+        <v>0.69500000000000006</v>
+      </c>
+      <c r="K51" s="62">
+        <f t="shared" si="14"/>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="L51" s="62">
+        <f t="shared" si="15"/>
         <v>5.75</v>
       </c>
-      <c r="I51" s="10">
-        <f t="shared" si="9"/>
-        <v>3.3110537481407532</v>
-      </c>
-      <c r="J51" s="63">
-        <f t="shared" si="4"/>
-        <v>0.69500000000000006</v>
-      </c>
-      <c r="K51" s="63">
-        <f t="shared" si="5"/>
-        <v>3.1749999999999998</v>
-      </c>
-      <c r="L51" s="63">
-        <f t="shared" si="8"/>
-        <v>5.75</v>
-      </c>
-      <c r="M51" s="63">
-        <f t="shared" si="6"/>
+      <c r="M51" s="62">
+        <f t="shared" si="16"/>
         <v>7.5750000000000002</v>
       </c>
-      <c r="N51" s="65">
-        <f t="shared" si="7"/>
+      <c r="N51" s="64">
+        <f t="shared" si="17"/>
         <v>10.7</v>
       </c>
       <c r="O51" s="5">
@@ -10710,10 +11376,10 @@
         <v>10</v>
       </c>
       <c r="T51" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="U51" s="5">
         <v>8</v>
-      </c>
-      <c r="U51" s="5">
-        <v>2.8</v>
       </c>
       <c r="V51" s="5">
         <v>3.4</v>
@@ -10739,10 +11405,10 @@
       <c r="AG51" s="12">
         <v>160</v>
       </c>
-      <c r="AH51" s="12">
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12">
         <v>493</v>
       </c>
-      <c r="AI51" s="12"/>
       <c r="AL51" s="12">
         <v>344</v>
       </c>
@@ -10760,11 +11426,11 @@
       <c r="C52" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="69" t="s">
+      <c r="D52" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E52" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
       <c r="F52" s="10">
@@ -10772,35 +11438,35 @@
         <v>6.9</v>
       </c>
       <c r="G52" s="10">
+        <f t="shared" si="10"/>
+        <v>2.9785714285714286</v>
+      </c>
+      <c r="H52" s="10">
         <f t="shared" si="11"/>
-        <v>2.9785714285714286</v>
-      </c>
-      <c r="H52" s="10">
+        <v>2.15</v>
+      </c>
+      <c r="I52" s="10">
         <f t="shared" si="12"/>
+        <v>1.9795798199962196</v>
+      </c>
+      <c r="J52" s="62">
+        <f t="shared" si="13"/>
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="K52" s="62">
+        <f t="shared" si="14"/>
+        <v>1.575</v>
+      </c>
+      <c r="L52" s="62">
+        <f t="shared" si="15"/>
         <v>2.15</v>
       </c>
-      <c r="I52" s="10">
-        <f t="shared" si="9"/>
-        <v>1.9795798199962196</v>
-      </c>
-      <c r="J52" s="63">
-        <f t="shared" si="4"/>
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="K52" s="63">
-        <f t="shared" si="5"/>
-        <v>1.575</v>
-      </c>
-      <c r="L52" s="63">
-        <f t="shared" si="8"/>
-        <v>2.15</v>
-      </c>
-      <c r="M52" s="63">
-        <f t="shared" si="6"/>
+      <c r="M52" s="62">
+        <f t="shared" si="16"/>
         <v>4.1749999999999998</v>
       </c>
-      <c r="N52" s="65">
-        <f t="shared" si="7"/>
+      <c r="N52" s="64">
+        <f t="shared" si="17"/>
         <v>6.7050000000000001</v>
       </c>
       <c r="O52" s="5">
@@ -10819,10 +11485,10 @@
         <v>4.3</v>
       </c>
       <c r="T52" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="U52" s="5">
         <v>3.8</v>
-      </c>
-      <c r="U52" s="5">
-        <v>1.5</v>
       </c>
       <c r="V52" s="5">
         <v>2.2999999999999998</v>
@@ -10848,10 +11514,10 @@
       <c r="AG52" s="12">
         <v>544</v>
       </c>
-      <c r="AH52" s="12">
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12">
         <v>1908</v>
       </c>
-      <c r="AI52" s="12"/>
       <c r="AL52" s="12">
         <v>1939</v>
       </c>
@@ -10869,11 +11535,11 @@
       <c r="C53" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="D53" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
       <c r="F53" s="10">
@@ -10881,35 +11547,35 @@
         <v>1.7</v>
       </c>
       <c r="G53" s="10">
+        <f t="shared" si="10"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H53" s="10">
         <f t="shared" si="11"/>
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="H53" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="I53" s="10">
         <f t="shared" si="12"/>
+        <v>0.42329165379891914</v>
+      </c>
+      <c r="J53" s="62">
+        <f t="shared" si="13"/>
+        <v>0.42999999999999994</v>
+      </c>
+      <c r="K53" s="62">
+        <f t="shared" si="14"/>
+        <v>0.6</v>
+      </c>
+      <c r="L53" s="62">
+        <f t="shared" si="15"/>
         <v>0.75</v>
       </c>
-      <c r="I53" s="10">
-        <f t="shared" si="9"/>
-        <v>0.42329165379891948</v>
-      </c>
-      <c r="J53" s="63">
-        <f t="shared" si="4"/>
-        <v>0.42999999999999994</v>
-      </c>
-      <c r="K53" s="63">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="L53" s="63">
-        <f t="shared" si="8"/>
-        <v>0.75</v>
-      </c>
-      <c r="M53" s="63">
-        <f t="shared" si="6"/>
+      <c r="M53" s="62">
+        <f t="shared" si="16"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="N53" s="65">
-        <f t="shared" si="7"/>
+      <c r="N53" s="64">
+        <f t="shared" si="17"/>
         <v>1.7</v>
       </c>
       <c r="O53" s="5">
@@ -10928,10 +11594,10 @@
         <v>0.7</v>
       </c>
       <c r="T53" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="U53" s="5">
         <v>0.9</v>
-      </c>
-      <c r="U53" s="5">
-        <v>0.6</v>
       </c>
       <c r="V53" s="5">
         <v>1.1000000000000001</v>
@@ -10957,10 +11623,10 @@
       <c r="AG53" s="12">
         <v>12</v>
       </c>
-      <c r="AH53" s="12">
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12">
         <v>56</v>
       </c>
-      <c r="AI53" s="12"/>
       <c r="AL53" s="12">
         <v>23</v>
       </c>
@@ -10978,11 +11644,11 @@
       <c r="C54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="70" t="s">
+      <c r="D54" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E54" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
       <c r="F54" s="39">
@@ -10990,35 +11656,35 @@
         <v>0.8</v>
       </c>
       <c r="G54" s="39">
+        <f t="shared" si="10"/>
+        <v>0.52857142857142858</v>
+      </c>
+      <c r="H54" s="39">
         <f t="shared" si="11"/>
-        <v>0.52857142857142858</v>
-      </c>
-      <c r="H54" s="39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I54" s="39">
         <f t="shared" si="12"/>
+        <v>0.16374732612530429</v>
+      </c>
+      <c r="J54" s="63">
+        <f t="shared" si="13"/>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K54" s="63">
+        <f t="shared" si="14"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="L54" s="63">
+        <f t="shared" si="15"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="I54" s="39">
-        <f t="shared" si="9"/>
-        <v>0.16374732612530429</v>
-      </c>
-      <c r="J54" s="64">
-        <f t="shared" si="4"/>
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="K54" s="64">
-        <f t="shared" si="5"/>
-        <v>0.42500000000000004</v>
-      </c>
-      <c r="L54" s="64">
-        <f t="shared" si="8"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M54" s="64">
-        <f t="shared" si="6"/>
+      <c r="M54" s="63">
+        <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
-      <c r="N54" s="66">
-        <f t="shared" si="7"/>
+      <c r="N54" s="65">
+        <f t="shared" si="17"/>
         <v>0.73499999999999999</v>
       </c>
       <c r="O54" s="37">
@@ -11037,10 +11703,10 @@
         <v>0.4</v>
       </c>
       <c r="T54" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="U54" s="37">
         <v>0.6</v>
-      </c>
-      <c r="U54" s="37">
-        <v>0.5</v>
       </c>
       <c r="V54" s="37">
         <v>0.6</v>
@@ -11066,7 +11732,7 @@
       <c r="AG54" s="2">
         <v>52</v>
       </c>
-      <c r="AH54" s="2">
+      <c r="AI54" s="2">
         <v>279</v>
       </c>
       <c r="AL54" s="2">
